--- a/psio/projekt/modeling/results/models_results_test_data.xlsx
+++ b/psio/projekt/modeling/results/models_results_test_data.xlsx
@@ -441,1026 +441,1026 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor(max_depth=11, max_leaf_nodes=33, min_samples_split=7)</t>
+          <t>DecisionTreeRegressor(max_depth=16, max_leaf_nodes=35, min_samples_split=10)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor(min_samples_leaf=2, min_samples_split=4, n_estimators=6)</t>
+          <t>RandomForestRegressor(min_samples_leaf=2, min_samples_split=3, n_estimators=16)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>KNeighborsRegressor(n_neighbors=3, weights='distance')</t>
+          <t>KNeighborsRegressor(n_neighbors=4, weights='distance')</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59.99999999999999</v>
+        <v>275</v>
       </c>
       <c r="B2" t="n">
-        <v>77.5</v>
+        <v>275</v>
       </c>
       <c r="C2" t="n">
-        <v>72.50000000000001</v>
+        <v>275.2269345238095</v>
       </c>
       <c r="D2" t="n">
-        <v>71.79120481127802</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="B3" t="n">
-        <v>86.00000000000001</v>
+        <v>278.7499999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>86.0515873015873</v>
+        <v>279.8802083333334</v>
       </c>
       <c r="D3" t="n">
-        <v>84.79662811367446</v>
+        <v>275.1370701047076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>298.75</v>
+        <v>10.45454545454546</v>
       </c>
       <c r="C4" t="n">
-        <v>295.8680555555556</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>295.3272039667009</v>
+        <v>11.20966748328855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="B5" t="n">
-        <v>85.71428571428572</v>
+        <v>287.5</v>
       </c>
       <c r="C5" t="n">
-        <v>87.49999999999999</v>
+        <v>287.6608382936507</v>
       </c>
       <c r="D5" t="n">
-        <v>88.32652871432305</v>
+        <v>288.9791600230392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>16.56249999999999</v>
+        <v>10.45454545454546</v>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B7" t="n">
-        <v>352.8571428571428</v>
+        <v>336.7857142857143</v>
       </c>
       <c r="C7" t="n">
-        <v>349.9999999999999</v>
+        <v>335.9895833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>350</v>
+        <v>334.6327054503651</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>305</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>307.0833333333334</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>305.6944444444445</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>305</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="B9" t="n">
-        <v>281.6666666666667</v>
+        <v>61.66666666666666</v>
       </c>
       <c r="C9" t="n">
-        <v>289.3402777777778</v>
+        <v>67.14062499999999</v>
       </c>
       <c r="D9" t="n">
-        <v>284.8211154148057</v>
+        <v>68.63589306015562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="B10" t="n">
-        <v>303</v>
+        <v>86.50000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>299.5138888888889</v>
+        <v>85.98958333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>304.9229481491473</v>
+        <v>85.25716873966742</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15</v>
+        <v>355</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>354.1666666666666</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>355</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B12" t="n">
-        <v>325.3846153846153</v>
+        <v>305</v>
       </c>
       <c r="C12" t="n">
-        <v>326.8055555555555</v>
+        <v>305.2901785714286</v>
       </c>
       <c r="D12" t="n">
-        <v>320</v>
+        <v>310.0570740524394</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="B13" t="n">
-        <v>277.2222222222222</v>
+        <v>345.5</v>
       </c>
       <c r="C13" t="n">
-        <v>273.0555555555555</v>
+        <v>344.9999999999998</v>
       </c>
       <c r="D13" t="n">
-        <v>276.3387964848614</v>
+        <v>344.6903161366924</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>305.279761904762</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>296.6027829057381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B15" t="n">
-        <v>46.87500000000001</v>
+        <v>55.5</v>
       </c>
       <c r="C15" t="n">
-        <v>45.41666666666667</v>
+        <v>55.64583333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>43.16460626241426</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>272.5</v>
+        <v>24.375</v>
       </c>
       <c r="C16" t="n">
-        <v>279.3888888888889</v>
+        <v>24.84375</v>
       </c>
       <c r="D16" t="n">
-        <v>271.5455990963143</v>
+        <v>23.85575741029337</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="B17" t="n">
-        <v>86.00000000000001</v>
+        <v>287.5</v>
       </c>
       <c r="C17" t="n">
-        <v>87.19047619047619</v>
+        <v>292.6515376984127</v>
       </c>
       <c r="D17" t="n">
-        <v>90</v>
+        <v>286.8641906638966</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="B18" t="n">
-        <v>78.75</v>
+        <v>278.7499999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>75.86111111111111</v>
+        <v>290.0384424603175</v>
       </c>
       <c r="D18" t="n">
-        <v>83.37793683270036</v>
+        <v>288.4121789686806</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="B19" t="n">
-        <v>277.2222222222222</v>
+        <v>332.8571428571429</v>
       </c>
       <c r="C19" t="n">
-        <v>273.4444444444444</v>
+        <v>331.7343749999999</v>
       </c>
       <c r="D19" t="n">
-        <v>270</v>
+        <v>331.0914946281117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="B20" t="n">
-        <v>23.88888888888889</v>
+        <v>287.5</v>
       </c>
       <c r="C20" t="n">
-        <v>22.36111111111111</v>
+        <v>287.1608382936507</v>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B21" t="n">
-        <v>343.5000000000001</v>
+        <v>345.5</v>
       </c>
       <c r="C21" t="n">
-        <v>339.4166666666667</v>
+        <v>344.9999999999998</v>
       </c>
       <c r="D21" t="n">
-        <v>338.530723563827</v>
+        <v>344.6903161366924</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="B22" t="n">
-        <v>77.5</v>
+        <v>322.9411764705882</v>
       </c>
       <c r="C22" t="n">
-        <v>74.69642857142857</v>
+        <v>322.6562499999999</v>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B23" t="n">
-        <v>85.71428571428572</v>
+        <v>86.50000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>88.39484126984127</v>
+        <v>88.35119047619047</v>
       </c>
       <c r="D23" t="n">
-        <v>88.9582701671561</v>
+        <v>84.03754916269463</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="B24" t="n">
-        <v>54.16666666666666</v>
+        <v>312.7272727272727</v>
       </c>
       <c r="C24" t="n">
-        <v>55.83333333333334</v>
+        <v>314.140625</v>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>315.0000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="B25" t="n">
-        <v>303</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>296.5277777777778</v>
+        <v>62.81818181818181</v>
       </c>
       <c r="D25" t="n">
-        <v>301.1097107157926</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B26" t="n">
-        <v>54.16666666666666</v>
+        <v>86.50000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>55.55555555555556</v>
+        <v>86.38541666666667</v>
       </c>
       <c r="D26" t="n">
-        <v>60.96658215680857</v>
+        <v>86.60583299321515</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="B27" t="n">
-        <v>46.87500000000001</v>
+        <v>354.1666666666666</v>
       </c>
       <c r="C27" t="n">
-        <v>47.22222222222222</v>
+        <v>355</v>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B28" t="n">
-        <v>16.56249999999999</v>
+        <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>19.58333333333333</v>
+        <v>44.83333333333334</v>
       </c>
       <c r="D28" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>34.04166666666668</v>
       </c>
       <c r="D29" t="n">
-        <v>9.999999999999998</v>
+        <v>35.35426074473581</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="B30" t="n">
-        <v>290</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>291.8402777777778</v>
+        <v>62.81818181818181</v>
       </c>
       <c r="D30" t="n">
-        <v>290</v>
+        <v>59.99999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>284.0000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>288.9985119047619</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>282.5629083723305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="B32" t="n">
-        <v>85.71428571428572</v>
+        <v>294</v>
       </c>
       <c r="C32" t="n">
-        <v>88.39484126984127</v>
+        <v>291.5208333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>86.36603442091287</v>
+        <v>290.370732362118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B33" t="n">
-        <v>281.6666666666667</v>
+        <v>278.7499999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>281.4166666666667</v>
+        <v>280.3593750000001</v>
       </c>
       <c r="D33" t="n">
-        <v>282.6523798617256</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="B34" t="n">
-        <v>297.5</v>
+        <v>332.8571428571429</v>
       </c>
       <c r="C34" t="n">
-        <v>293.4166666666666</v>
+        <v>332.125</v>
       </c>
       <c r="D34" t="n">
-        <v>300</v>
+        <v>327.9190850612664</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>72.5</v>
+        <v>31</v>
       </c>
       <c r="C35" t="n">
-        <v>72.02777777777777</v>
+        <v>32.00669642857143</v>
       </c>
       <c r="D35" t="n">
-        <v>69.1105506749406</v>
+        <v>30.9414701435223</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="B36" t="n">
-        <v>272.5</v>
+        <v>345.5</v>
       </c>
       <c r="C36" t="n">
-        <v>271</v>
+        <v>348.6614583333334</v>
       </c>
       <c r="D36" t="n">
-        <v>270.9095625736832</v>
+        <v>346.1802210352478</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B37" t="n">
-        <v>325.3846153846153</v>
+        <v>322.9411764705882</v>
       </c>
       <c r="C37" t="n">
-        <v>327.0277777777778</v>
+        <v>322.7328869047619</v>
       </c>
       <c r="D37" t="n">
-        <v>321.1662301568558</v>
+        <v>321.8799011799248</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="B38" t="n">
-        <v>335</v>
+        <v>278.7499999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>339</v>
+        <v>280.9843750000001</v>
       </c>
       <c r="D38" t="n">
-        <v>338.6724494272019</v>
+        <v>280.0038748472404</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>320.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>50</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>46.87500000000001</v>
+        <v>55.5</v>
       </c>
       <c r="C40" t="n">
-        <v>47.33333333333333</v>
+        <v>56.06101190476191</v>
       </c>
       <c r="D40" t="n">
-        <v>50</v>
+        <v>57.02719424435822</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>34.75</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>34.13690476190476</v>
+        <v>46.29613095238096</v>
       </c>
       <c r="D41" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>345</v>
+        <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>343.5000000000001</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>340.6666666666666</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>341.2271894635904</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>315</v>
+        <v>5</v>
       </c>
       <c r="B43" t="n">
-        <v>313.3333333333333</v>
+        <v>4.999999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>318.3333333333333</v>
+        <v>9.0625</v>
       </c>
       <c r="D43" t="n">
-        <v>323.3937920774047</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="B44" t="n">
-        <v>343.5000000000001</v>
+        <v>287.5000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>343.75</v>
+        <v>288.9843749999999</v>
       </c>
       <c r="D44" t="n">
-        <v>345</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
+        <v>322.9411764705882</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>324.5312499999999</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>329.7798310092592</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B46" t="n">
-        <v>307.0833333333334</v>
+        <v>287.5</v>
       </c>
       <c r="C46" t="n">
-        <v>306.4583333333333</v>
+        <v>290.7676091269842</v>
       </c>
       <c r="D46" t="n">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B47" t="n">
-        <v>277.2222222222222</v>
+        <v>322.9411764705882</v>
       </c>
       <c r="C47" t="n">
-        <v>279.625</v>
+        <v>321.5312500000001</v>
       </c>
       <c r="D47" t="n">
-        <v>277.5689537548894</v>
+        <v>320.0491681684566</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B48" t="n">
-        <v>297.5</v>
+        <v>305</v>
       </c>
       <c r="C48" t="n">
-        <v>293.4166666666666</v>
+        <v>301.904761904762</v>
       </c>
       <c r="D48" t="n">
-        <v>297.8622311547619</v>
+        <v>291.763588369742</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>354.1666666666666</v>
       </c>
       <c r="C49" t="n">
-        <v>10</v>
+        <v>352.3072916666667</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>350.6313337516972</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B50" t="n">
-        <v>86.00000000000001</v>
+        <v>38.33333333333333</v>
       </c>
       <c r="C50" t="n">
-        <v>86.0515873015873</v>
+        <v>40.05208333333334</v>
       </c>
       <c r="D50" t="n">
-        <v>84.79662811367446</v>
+        <v>42.4171472671088</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="B51" t="n">
-        <v>85.71428571428572</v>
+        <v>322.9411764705882</v>
       </c>
       <c r="C51" t="n">
-        <v>86.25</v>
+        <v>321.5312500000001</v>
       </c>
       <c r="D51" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>335</v>
+        <v>35</v>
       </c>
       <c r="B52" t="n">
-        <v>325.3846153846153</v>
+        <v>45</v>
       </c>
       <c r="C52" t="n">
-        <v>330.9722222222222</v>
+        <v>45.87425595238096</v>
       </c>
       <c r="D52" t="n">
-        <v>329.8180333500386</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B53" t="n">
-        <v>85.71428571428572</v>
+        <v>38.33333333333333</v>
       </c>
       <c r="C53" t="n">
-        <v>88.39484126984127</v>
+        <v>39.85416666666667</v>
       </c>
       <c r="D53" t="n">
-        <v>88.9582701671561</v>
+        <v>41.21007916166629</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>284.9999999999999</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>282.7499999999999</v>
+        <v>221.875</v>
       </c>
       <c r="D54" t="n">
-        <v>292.5345843344122</v>
+        <v>176.1174098135118</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>82.14285714285714</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>80.29861111111113</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="B56" t="n">
-        <v>298.75</v>
+        <v>31</v>
       </c>
       <c r="C56" t="n">
-        <v>297.5347222222222</v>
+        <v>34.04166666666668</v>
       </c>
       <c r="D56" t="n">
-        <v>304.5413729549948</v>
+        <v>35.35426074473581</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="B57" t="n">
-        <v>16.56249999999999</v>
+        <v>305</v>
       </c>
       <c r="C57" t="n">
-        <v>7.499999999999999</v>
+        <v>305.436011904762</v>
       </c>
       <c r="D57" t="n">
-        <v>10</v>
+        <v>308.1790062157849</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="B58" t="n">
-        <v>46.87500000000001</v>
+        <v>71.66666666666666</v>
       </c>
       <c r="C58" t="n">
-        <v>46.91666666666666</v>
+        <v>72.078125</v>
       </c>
       <c r="D58" t="n">
-        <v>48.18501119611437</v>
+        <v>70.87815981577316</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>345</v>
+        <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>343.5000000000001</v>
+        <v>82.14285714285714</v>
       </c>
       <c r="C59" t="n">
-        <v>345</v>
+        <v>82.72395833333333</v>
       </c>
       <c r="D59" t="n">
-        <v>343.2325352417949</v>
+        <v>83.32522535348434</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>90</v>
+        <v>295</v>
       </c>
       <c r="B60" t="n">
-        <v>86.00000000000001</v>
+        <v>284.0000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>87.19047619047619</v>
+        <v>288.9985119047619</v>
       </c>
       <c r="D60" t="n">
-        <v>86.93470966321559</v>
+        <v>282.5629083723305</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>355</v>
+        <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>352.8571428571428</v>
+        <v>73.00000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>351.3888888888888</v>
+        <v>70.82440476190477</v>
       </c>
       <c r="D61" t="n">
-        <v>355</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B62" t="n">
-        <v>86.00000000000001</v>
+        <v>55.5</v>
       </c>
       <c r="C62" t="n">
-        <v>84.96825396825398</v>
+        <v>55.95833333333333</v>
       </c>
       <c r="D62" t="n">
-        <v>85</v>
+        <v>55.57708557676296</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>275.625</v>
       </c>
       <c r="C63" t="n">
-        <v>10</v>
+        <v>277.4166666666667</v>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>279.1232837883193</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B64" t="n">
-        <v>46.87500000000001</v>
+        <v>31</v>
       </c>
       <c r="C64" t="n">
-        <v>45.41666666666667</v>
+        <v>34.04166666666668</v>
       </c>
       <c r="D64" t="n">
-        <v>45</v>
+        <v>40.95110648117861</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>322.9411764705882</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>324.5312499999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>332.6919612025153</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B66" t="n">
-        <v>77.5</v>
+        <v>45</v>
       </c>
       <c r="C66" t="n">
-        <v>74.69642857142857</v>
+        <v>44.94270833333334</v>
       </c>
       <c r="D66" t="n">
-        <v>79.99999999999999</v>
+        <v>48.91196338714432</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B67" t="n">
-        <v>77.5</v>
+        <v>31</v>
       </c>
       <c r="C67" t="n">
-        <v>77.50000000000001</v>
+        <v>31.79836309523809</v>
       </c>
       <c r="D67" t="n">
-        <v>71.09503908826602</v>
+        <v>31.99569470019795</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>277.2222222222222</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>275.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>273.2492334889564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>6.666666666666668</v>
+        <v>63.28693181818181</v>
       </c>
       <c r="D69" t="n">
-        <v>9.999999999999998</v>
+        <v>62.28900922738923</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>70</v>
+        <v>275</v>
       </c>
       <c r="B70" t="n">
-        <v>78.75</v>
+        <v>275</v>
       </c>
       <c r="C70" t="n">
-        <v>72.52777777777777</v>
+        <v>274.9144345238095</v>
       </c>
       <c r="D70" t="n">
-        <v>67.66657419383402</v>
+        <v>280.185499938404</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="B71" t="n">
-        <v>77.5</v>
+        <v>278.7499999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>77.50000000000001</v>
+        <v>285.3081597222223</v>
       </c>
       <c r="D71" t="n">
-        <v>71.09503908826602</v>
+        <v>287.4128982595542</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="B72" t="n">
-        <v>352.8571428571428</v>
+        <v>275</v>
       </c>
       <c r="C72" t="n">
-        <v>351.3888888888888</v>
+        <v>276.1510416666667</v>
       </c>
       <c r="D72" t="n">
-        <v>351.3785671366354</v>
+        <v>280.1271993482568</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B73" t="n">
-        <v>34.75</v>
+        <v>31</v>
       </c>
       <c r="C73" t="n">
-        <v>34.375</v>
+        <v>30.15624999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>31.62982089820954</v>
+        <v>27.91943568899881</v>
       </c>
     </row>
   </sheetData>

--- a/psio/projekt/modeling/results/models_results_test_data.xlsx
+++ b/psio/projekt/modeling/results/models_results_test_data.xlsx
@@ -441,676 +441,676 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor(max_depth=16, max_leaf_nodes=35, min_samples_split=10)</t>
+          <t>DecisionTreeRegressor(max_depth=5, max_leaf_nodes=35, min_samples_split=4)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor(min_samples_leaf=2, min_samples_split=3, n_estimators=16)</t>
+          <t>RandomForestRegressor(n_estimators=75)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>KNeighborsRegressor(n_neighbors=4, weights='distance')</t>
+          <t>KNeighborsRegressor(n_neighbors=3, weights='distance')</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="B2" t="n">
-        <v>275</v>
+        <v>44.66666666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>275.2269345238095</v>
+        <v>45.20000000000004</v>
       </c>
       <c r="D2" t="n">
-        <v>275</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="B3" t="n">
-        <v>278.7499999999999</v>
+        <v>323.5</v>
       </c>
       <c r="C3" t="n">
-        <v>279.8802083333334</v>
+        <v>328.2666666666668</v>
       </c>
       <c r="D3" t="n">
-        <v>275.1370701047076</v>
+        <v>329.7586026348816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>10.45454545454546</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="C4" t="n">
-        <v>11.04166666666667</v>
+        <v>34.93333333333335</v>
       </c>
       <c r="D4" t="n">
-        <v>11.20966748328855</v>
+        <v>36.12196026286306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>287.5</v>
+        <v>37.72727272727273</v>
       </c>
       <c r="C5" t="n">
-        <v>287.6608382936507</v>
+        <v>38.26666666666664</v>
       </c>
       <c r="D5" t="n">
-        <v>288.9791600230392</v>
+        <v>37.32881308091413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="B6" t="n">
-        <v>10.45454545454546</v>
+        <v>310.5882352941176</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>309.0666666666669</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>309.3421660710793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B7" t="n">
-        <v>336.7857142857143</v>
+        <v>317.5</v>
       </c>
       <c r="C7" t="n">
-        <v>335.9895833333334</v>
+        <v>320.1333333333332</v>
       </c>
       <c r="D7" t="n">
-        <v>334.6327054503651</v>
+        <v>313.3749253287622</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="B8" t="n">
-        <v>4.999999999999999</v>
+        <v>338.8461538461539</v>
       </c>
       <c r="C8" t="n">
-        <v>5.000000000000001</v>
+        <v>337.9999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>337.2674652814846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>61.66666666666666</v>
+        <v>37.72727272727273</v>
       </c>
       <c r="C9" t="n">
-        <v>67.14062499999999</v>
+        <v>39.3333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>68.63589306015562</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B10" t="n">
-        <v>86.50000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="C10" t="n">
-        <v>85.98958333333334</v>
+        <v>67.73333333333335</v>
       </c>
       <c r="D10" t="n">
-        <v>85.25716873966742</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B11" t="n">
-        <v>354.1666666666666</v>
+        <v>323.5</v>
       </c>
       <c r="C11" t="n">
-        <v>355</v>
+        <v>326.0666666666669</v>
       </c>
       <c r="D11" t="n">
-        <v>355</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>305.2901785714286</v>
+        <v>19.99999999999998</v>
       </c>
       <c r="D12" t="n">
-        <v>310.0570740524394</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>345.5</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9999999999998</v>
+        <v>14.99999999999998</v>
       </c>
       <c r="D13" t="n">
-        <v>344.6903161366924</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B14" t="n">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C14" t="n">
-        <v>305.279761904762</v>
+        <v>289.1333333333333</v>
       </c>
       <c r="D14" t="n">
-        <v>296.6027829057381</v>
+        <v>284.8184514029858</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B15" t="n">
-        <v>55.5</v>
+        <v>84.37500000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>55.64583333333333</v>
+        <v>84.06666666666663</v>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>24.375</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="C16" t="n">
-        <v>24.84375</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>23.85575741029337</v>
+        <v>36.83784155878765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B17" t="n">
-        <v>287.5</v>
+        <v>323.5</v>
       </c>
       <c r="C17" t="n">
-        <v>292.6515376984127</v>
+        <v>326.0666666666669</v>
       </c>
       <c r="D17" t="n">
-        <v>286.8641906638966</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="B18" t="n">
-        <v>278.7499999999999</v>
+        <v>279.7619047619048</v>
       </c>
       <c r="C18" t="n">
-        <v>290.0384424603175</v>
+        <v>276.4</v>
       </c>
       <c r="D18" t="n">
-        <v>288.4121789686806</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="B19" t="n">
-        <v>332.8571428571429</v>
+        <v>44.66666666666667</v>
       </c>
       <c r="C19" t="n">
-        <v>331.7343749999999</v>
+        <v>45.06666666666668</v>
       </c>
       <c r="D19" t="n">
-        <v>331.0914946281117</v>
+        <v>44.85213305200006</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>285</v>
+        <v>65</v>
       </c>
       <c r="B20" t="n">
-        <v>287.5</v>
+        <v>62.22222222222221</v>
       </c>
       <c r="C20" t="n">
-        <v>287.1608382936507</v>
+        <v>64.86666666666672</v>
       </c>
       <c r="D20" t="n">
-        <v>285</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>345</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
-        <v>345.5</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="C21" t="n">
-        <v>344.9999999999998</v>
+        <v>34.66666666666665</v>
       </c>
       <c r="D21" t="n">
-        <v>344.6903161366924</v>
+        <v>36.80944594037395</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>320</v>
+        <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>322.9411764705882</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>322.6562499999999</v>
+        <v>25.00000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>320</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>90</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>86.50000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="C23" t="n">
-        <v>88.35119047619047</v>
+        <v>62.79999999999997</v>
       </c>
       <c r="D23" t="n">
-        <v>84.03754916269463</v>
+        <v>60.14349556529056</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>315</v>
+        <v>5</v>
       </c>
       <c r="B24" t="n">
-        <v>312.7272727272727</v>
+        <v>6.76470588235294</v>
       </c>
       <c r="C24" t="n">
-        <v>314.140625</v>
+        <v>4.999999999999995</v>
       </c>
       <c r="D24" t="n">
-        <v>315.0000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>75</v>
+        <v>350</v>
       </c>
       <c r="B25" t="n">
-        <v>59.99999999999999</v>
+        <v>352.4999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>62.81818181818181</v>
+        <v>349.133333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>59.99999999999999</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>86.50000000000001</v>
+        <v>37.72727272727273</v>
       </c>
       <c r="C26" t="n">
-        <v>86.38541666666667</v>
+        <v>30.93333333333331</v>
       </c>
       <c r="D26" t="n">
-        <v>86.60583299321515</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="B27" t="n">
-        <v>354.1666666666666</v>
+        <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>355</v>
+        <v>20.26666666666664</v>
       </c>
       <c r="D27" t="n">
-        <v>355</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>45</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="C28" t="n">
-        <v>44.83333333333334</v>
+        <v>29.66666666666665</v>
       </c>
       <c r="D28" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B29" t="n">
-        <v>31</v>
+        <v>84.37500000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>34.04166666666668</v>
+        <v>82.79999999999994</v>
       </c>
       <c r="D29" t="n">
-        <v>35.35426074473581</v>
+        <v>79.99302173301757</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="B30" t="n">
-        <v>59.99999999999999</v>
+        <v>345.625</v>
       </c>
       <c r="C30" t="n">
-        <v>62.81818181818181</v>
+        <v>344.6666666666667</v>
       </c>
       <c r="D30" t="n">
-        <v>59.99999999999999</v>
+        <v>345.0000000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B31" t="n">
-        <v>284.0000000000001</v>
+        <v>275</v>
       </c>
       <c r="C31" t="n">
-        <v>288.9985119047619</v>
+        <v>276.7333333333335</v>
       </c>
       <c r="D31" t="n">
-        <v>282.5629083723305</v>
+        <v>271.2984763036159</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="B32" t="n">
-        <v>294</v>
+        <v>338.8461538461539</v>
       </c>
       <c r="C32" t="n">
-        <v>291.5208333333333</v>
+        <v>335.7333333333332</v>
       </c>
       <c r="D32" t="n">
-        <v>290.370732362118</v>
+        <v>333.4154842122319</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="B33" t="n">
-        <v>278.7499999999999</v>
+        <v>323.5</v>
       </c>
       <c r="C33" t="n">
-        <v>280.3593750000001</v>
+        <v>326.5333333333336</v>
       </c>
       <c r="D33" t="n">
-        <v>280</v>
+        <v>322.1482515537765</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="B34" t="n">
-        <v>332.8571428571429</v>
+        <v>300</v>
       </c>
       <c r="C34" t="n">
-        <v>332.125</v>
+        <v>303.1999999999998</v>
       </c>
       <c r="D34" t="n">
-        <v>327.9190850612664</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B35" t="n">
-        <v>31</v>
+        <v>62.22222222222221</v>
       </c>
       <c r="C35" t="n">
-        <v>32.00669642857143</v>
+        <v>64.86666666666672</v>
       </c>
       <c r="D35" t="n">
-        <v>30.9414701435223</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B36" t="n">
-        <v>345.5</v>
+        <v>345.625</v>
       </c>
       <c r="C36" t="n">
-        <v>348.6614583333334</v>
+        <v>344.9333333333335</v>
       </c>
       <c r="D36" t="n">
-        <v>346.1802210352478</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>315</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>322.9411764705882</v>
+        <v>62.22222222222221</v>
       </c>
       <c r="C37" t="n">
-        <v>322.7328869047619</v>
+        <v>58.93333333333329</v>
       </c>
       <c r="D37" t="n">
-        <v>321.8799011799248</v>
+        <v>53.50945119355687</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B38" t="n">
-        <v>278.7499999999999</v>
+        <v>305</v>
       </c>
       <c r="C38" t="n">
-        <v>280.9843750000001</v>
+        <v>300.8666666666663</v>
       </c>
       <c r="D38" t="n">
-        <v>280.0038748472404</v>
+        <v>296.4789919750945</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>274.6666666666666</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>271.4501093830714</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>59.99999999999999</v>
+        <v>5</v>
       </c>
       <c r="B40" t="n">
-        <v>55.5</v>
+        <v>6.76470588235294</v>
       </c>
       <c r="C40" t="n">
-        <v>56.06101190476191</v>
+        <v>4.999999999999995</v>
       </c>
       <c r="D40" t="n">
-        <v>57.02719424435822</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B41" t="n">
-        <v>45</v>
+        <v>62.22222222222221</v>
       </c>
       <c r="C41" t="n">
-        <v>46.29613095238096</v>
+        <v>61.33333333333331</v>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>76.66685315021158</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B42" t="n">
-        <v>4.999999999999999</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="C42" t="n">
-        <v>5.000000000000001</v>
+        <v>30.53333333333331</v>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>30.2977966431843</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B43" t="n">
-        <v>4.999999999999999</v>
+        <v>6.76470588235294</v>
       </c>
       <c r="C43" t="n">
-        <v>9.0625</v>
+        <v>10.79999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>285</v>
+        <v>340</v>
       </c>
       <c r="B44" t="n">
-        <v>287.5000000000001</v>
+        <v>338.8461538461539</v>
       </c>
       <c r="C44" t="n">
-        <v>288.9843749999999</v>
+        <v>337.2666666666664</v>
       </c>
       <c r="D44" t="n">
-        <v>285</v>
+        <v>337.2813808383942</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>322.9411764705882</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>324.5312499999999</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>329.7798310092592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B46" t="n">
-        <v>287.5</v>
+        <v>293.3333333333333</v>
       </c>
       <c r="C46" t="n">
-        <v>290.7676091269842</v>
+        <v>293.3333333333332</v>
       </c>
       <c r="D46" t="n">
-        <v>285</v>
+        <v>289.3202585004187</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="B47" t="n">
-        <v>322.9411764705882</v>
+        <v>345.625</v>
       </c>
       <c r="C47" t="n">
-        <v>321.5312500000001</v>
+        <v>346.6</v>
       </c>
       <c r="D47" t="n">
-        <v>320.0491681684566</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="B48" t="n">
-        <v>305</v>
+        <v>323.5</v>
       </c>
       <c r="C48" t="n">
-        <v>301.904761904762</v>
+        <v>328.2666666666668</v>
       </c>
       <c r="D48" t="n">
-        <v>291.763588369742</v>
+        <v>329.7586026348816</v>
       </c>
     </row>
     <row r="49">
@@ -1118,349 +1118,349 @@
         <v>350</v>
       </c>
       <c r="B49" t="n">
-        <v>354.1666666666666</v>
+        <v>352.4999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>352.3072916666667</v>
+        <v>352.0666666666665</v>
       </c>
       <c r="D49" t="n">
-        <v>350.6313337516972</v>
+        <v>353.7929670383106</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>40</v>
+        <v>355</v>
       </c>
       <c r="B50" t="n">
-        <v>38.33333333333333</v>
+        <v>352.4999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>40.05208333333334</v>
+        <v>316.9999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>42.4171472671088</v>
+        <v>276.6712087823137</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="B51" t="n">
-        <v>322.9411764705882</v>
+        <v>293.3333333333333</v>
       </c>
       <c r="C51" t="n">
-        <v>321.5312500000001</v>
+        <v>296.0666666666668</v>
       </c>
       <c r="D51" t="n">
-        <v>320</v>
+        <v>294.9999999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>35</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>45</v>
+        <v>74.2</v>
       </c>
       <c r="C52" t="n">
-        <v>45.87425595238096</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>45</v>
+        <v>69.52020909263868</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="B53" t="n">
-        <v>38.33333333333333</v>
+        <v>310.5882352941176</v>
       </c>
       <c r="C53" t="n">
-        <v>39.85416666666667</v>
+        <v>313.6666666666662</v>
       </c>
       <c r="D53" t="n">
-        <v>41.21007916166629</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C54" t="n">
-        <v>221.875</v>
+        <v>20.19999999999998</v>
       </c>
       <c r="D54" t="n">
-        <v>176.1174098135118</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="B55" t="n">
-        <v>82.14285714285714</v>
+        <v>323.5</v>
       </c>
       <c r="C55" t="n">
-        <v>80.29861111111113</v>
+        <v>322.0666666666666</v>
       </c>
       <c r="D55" t="n">
-        <v>80</v>
+        <v>321.8693718981369</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>35</v>
+        <v>320</v>
       </c>
       <c r="B56" t="n">
-        <v>31</v>
+        <v>323.5</v>
       </c>
       <c r="C56" t="n">
-        <v>34.04166666666668</v>
+        <v>321.7333333333332</v>
       </c>
       <c r="D56" t="n">
-        <v>35.35426074473581</v>
+        <v>323.3248732691276</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B57" t="n">
         <v>305</v>
       </c>
       <c r="C57" t="n">
-        <v>305.436011904762</v>
+        <v>304.7999999999998</v>
       </c>
       <c r="D57" t="n">
-        <v>308.1790062157849</v>
+        <v>298.2602916872337</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="B58" t="n">
-        <v>71.66666666666666</v>
+        <v>317.5</v>
       </c>
       <c r="C58" t="n">
-        <v>72.078125</v>
+        <v>316.3999999999995</v>
       </c>
       <c r="D58" t="n">
-        <v>70.87815981577316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="B59" t="n">
-        <v>82.14285714285714</v>
+        <v>338.8461538461539</v>
       </c>
       <c r="C59" t="n">
-        <v>82.72395833333333</v>
+        <v>337.9999999999998</v>
       </c>
       <c r="D59" t="n">
-        <v>83.32522535348434</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>295</v>
+        <v>35</v>
       </c>
       <c r="B60" t="n">
-        <v>284.0000000000001</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="C60" t="n">
-        <v>288.9985119047619</v>
+        <v>34.40000000000002</v>
       </c>
       <c r="D60" t="n">
-        <v>282.5629083723305</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="B61" t="n">
-        <v>73.00000000000001</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
-        <v>70.82440476190477</v>
+        <v>17.73333333333332</v>
       </c>
       <c r="D61" t="n">
-        <v>65</v>
+        <v>18.39337842603448</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>55</v>
+        <v>345</v>
       </c>
       <c r="B62" t="n">
-        <v>55.5</v>
+        <v>345.625</v>
       </c>
       <c r="C62" t="n">
-        <v>55.95833333333333</v>
+        <v>345.2000000000002</v>
       </c>
       <c r="D62" t="n">
-        <v>55.57708557676296</v>
+        <v>345.2445510252689</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="B63" t="n">
-        <v>275.625</v>
+        <v>44.66666666666667</v>
       </c>
       <c r="C63" t="n">
-        <v>277.4166666666667</v>
+        <v>47.93333333333336</v>
       </c>
       <c r="D63" t="n">
-        <v>279.1232837883193</v>
+        <v>51.26356352640975</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>35</v>
+        <v>320</v>
       </c>
       <c r="B64" t="n">
-        <v>31</v>
+        <v>323.5</v>
       </c>
       <c r="C64" t="n">
-        <v>34.04166666666668</v>
+        <v>320.1999999999997</v>
       </c>
       <c r="D64" t="n">
-        <v>40.95110648117861</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="B65" t="n">
-        <v>322.9411764705882</v>
+        <v>44.66666666666667</v>
       </c>
       <c r="C65" t="n">
-        <v>324.5312499999999</v>
+        <v>43.93333333333334</v>
       </c>
       <c r="D65" t="n">
-        <v>332.6919612025153</v>
+        <v>44.6953968487273</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="B66" t="n">
-        <v>45</v>
+        <v>352.4999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>44.94270833333334</v>
+        <v>351.6666666666664</v>
       </c>
       <c r="D66" t="n">
-        <v>48.91196338714432</v>
+        <v>350</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>35</v>
+        <v>340</v>
       </c>
       <c r="B67" t="n">
-        <v>31</v>
+        <v>338.8461538461539</v>
       </c>
       <c r="C67" t="n">
-        <v>31.79836309523809</v>
+        <v>340.0666666666665</v>
       </c>
       <c r="D67" t="n">
-        <v>31.99569470019795</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>323.5</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>328.0000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>330.9710495463987</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>59.99999999999999</v>
+        <v>90</v>
       </c>
       <c r="B69" t="n">
-        <v>59.99999999999999</v>
+        <v>84.37500000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>63.28693181818181</v>
+        <v>87.00000000000003</v>
       </c>
       <c r="D69" t="n">
-        <v>62.28900922738923</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="B70" t="n">
-        <v>275</v>
+        <v>56.66666666666666</v>
       </c>
       <c r="C70" t="n">
-        <v>274.9144345238095</v>
+        <v>56.53333333333331</v>
       </c>
       <c r="D70" t="n">
-        <v>280.185499938404</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>285</v>
+        <v>5</v>
       </c>
       <c r="B71" t="n">
-        <v>278.7499999999999</v>
+        <v>6.76470588235294</v>
       </c>
       <c r="C71" t="n">
-        <v>285.3081597222223</v>
+        <v>4.999999999999995</v>
       </c>
       <c r="D71" t="n">
-        <v>287.4128982595542</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>270</v>
+        <v>35</v>
       </c>
       <c r="B72" t="n">
-        <v>275</v>
+        <v>37.72727272727273</v>
       </c>
       <c r="C72" t="n">
-        <v>276.1510416666667</v>
+        <v>36.40000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>280.1271993482568</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B73" t="n">
-        <v>31</v>
+        <v>84.37500000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>30.15624999999999</v>
+        <v>80.99999999999994</v>
       </c>
       <c r="D73" t="n">
-        <v>27.91943568899881</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/psio/projekt/modeling/results/models_results_test_data.xlsx
+++ b/psio/projekt/modeling/results/models_results_test_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,508 +441,508 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor(max_depth=5, max_leaf_nodes=35, min_samples_split=4)</t>
+          <t>DecisionTreeRegressor(max_depth=13, max_leaf_nodes=35, min_samples_split=5)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor(n_estimators=75)</t>
+          <t>RandomForestRegressor(min_samples_split=8, n_estimators=3)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>KNeighborsRegressor(n_neighbors=3, weights='distance')</t>
+          <t>KNeighborsRegressor(n_neighbors=2, weights='distance')</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="B2" t="n">
-        <v>44.66666666666667</v>
+        <v>332.9</v>
       </c>
       <c r="C2" t="n">
-        <v>45.20000000000004</v>
+        <v>333.7</v>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>330</v>
+        <v>25</v>
       </c>
       <c r="B3" t="n">
-        <v>323.5</v>
+        <v>23.6</v>
       </c>
       <c r="C3" t="n">
-        <v>328.2666666666668</v>
+        <v>24.2</v>
       </c>
       <c r="D3" t="n">
-        <v>329.7586026348816</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25</v>
+        <v>355</v>
       </c>
       <c r="B4" t="n">
-        <v>32.14285714285715</v>
+        <v>352.2</v>
       </c>
       <c r="C4" t="n">
-        <v>34.93333333333335</v>
+        <v>351.3</v>
       </c>
       <c r="D4" t="n">
-        <v>36.12196026286306</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>37.72727272727273</v>
+        <v>16.5</v>
       </c>
       <c r="C5" t="n">
-        <v>38.26666666666664</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>37.32881308091413</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B6" t="n">
-        <v>310.5882352941176</v>
+        <v>305.6</v>
       </c>
       <c r="C6" t="n">
-        <v>309.0666666666669</v>
+        <v>312.9</v>
       </c>
       <c r="D6" t="n">
-        <v>309.3421660710793</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B7" t="n">
-        <v>317.5</v>
+        <v>303.3</v>
       </c>
       <c r="C7" t="n">
-        <v>320.1333333333332</v>
+        <v>299</v>
       </c>
       <c r="D7" t="n">
-        <v>313.3749253287622</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="B8" t="n">
-        <v>338.8461538461539</v>
+        <v>298.6</v>
       </c>
       <c r="C8" t="n">
-        <v>337.9999999999999</v>
+        <v>294</v>
       </c>
       <c r="D8" t="n">
-        <v>337.2674652814846</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>37.72727272727273</v>
+        <v>43.3</v>
       </c>
       <c r="C9" t="n">
-        <v>39.3333333333333</v>
+        <v>43.8</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>65</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>74.2</v>
+        <v>67.5</v>
       </c>
       <c r="C10" t="n">
-        <v>67.73333333333335</v>
+        <v>62.9</v>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>325</v>
+        <v>55</v>
       </c>
       <c r="B11" t="n">
-        <v>323.5</v>
+        <v>53.1</v>
       </c>
       <c r="C11" t="n">
-        <v>326.0666666666669</v>
+        <v>55.7</v>
       </c>
       <c r="D11" t="n">
-        <v>325</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>19.99999999999998</v>
+        <v>67</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15</v>
+        <v>320</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>317.7</v>
       </c>
       <c r="C13" t="n">
-        <v>14.99999999999998</v>
+        <v>323</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="B14" t="n">
-        <v>291</v>
+        <v>332.9</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1333333333333</v>
+        <v>333.6</v>
       </c>
       <c r="D14" t="n">
-        <v>284.8184514029858</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>85</v>
+        <v>290</v>
       </c>
       <c r="B15" t="n">
-        <v>84.37500000000001</v>
+        <v>297.5</v>
       </c>
       <c r="C15" t="n">
-        <v>84.06666666666663</v>
+        <v>294.9</v>
       </c>
       <c r="D15" t="n">
-        <v>85</v>
+        <v>286.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>30</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>32.14285714285715</v>
+        <v>87.5</v>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>36.83784155878765</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>325</v>
+        <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>323.5</v>
+        <v>77.8</v>
       </c>
       <c r="C17" t="n">
-        <v>326.0666666666669</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>325</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>275</v>
+        <v>330</v>
       </c>
       <c r="B18" t="n">
-        <v>279.7619047619048</v>
+        <v>332.9</v>
       </c>
       <c r="C18" t="n">
-        <v>276.4</v>
+        <v>333.6</v>
       </c>
       <c r="D18" t="n">
-        <v>275</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>44.66666666666667</v>
+        <v>85.5</v>
       </c>
       <c r="C19" t="n">
-        <v>45.06666666666668</v>
+        <v>82.8</v>
       </c>
       <c r="D19" t="n">
-        <v>44.85213305200006</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
       <c r="B20" t="n">
-        <v>62.22222222222221</v>
+        <v>305.6</v>
       </c>
       <c r="C20" t="n">
-        <v>64.86666666666672</v>
+        <v>312.9</v>
       </c>
       <c r="D20" t="n">
-        <v>65</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B21" t="n">
-        <v>32.14285714285715</v>
+        <v>75</v>
       </c>
       <c r="C21" t="n">
-        <v>34.66666666666665</v>
+        <v>83.7</v>
       </c>
       <c r="D21" t="n">
-        <v>36.80944594037395</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>87.5</v>
       </c>
       <c r="C22" t="n">
-        <v>25.00000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>25</v>
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>59.99999999999999</v>
+        <v>290</v>
       </c>
       <c r="B23" t="n">
-        <v>74.2</v>
+        <v>285</v>
       </c>
       <c r="C23" t="n">
-        <v>62.79999999999997</v>
+        <v>282</v>
       </c>
       <c r="D23" t="n">
-        <v>60.14349556529056</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B24" t="n">
-        <v>6.76470588235294</v>
+        <v>75</v>
       </c>
       <c r="C24" t="n">
-        <v>4.999999999999995</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>352.4999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="C25" t="n">
-        <v>349.133333333333</v>
+        <v>22.4</v>
       </c>
       <c r="D25" t="n">
-        <v>350</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>37.72727272727273</v>
+        <v>2.7</v>
       </c>
       <c r="C26" t="n">
-        <v>30.93333333333331</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>29.7</v>
       </c>
       <c r="C27" t="n">
-        <v>20.26666666666664</v>
+        <v>30.6</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="B28" t="n">
-        <v>32.14285714285715</v>
+        <v>323.9</v>
       </c>
       <c r="C28" t="n">
-        <v>29.66666666666665</v>
+        <v>323.1</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>90</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>84.37500000000001</v>
+        <v>67.5</v>
       </c>
       <c r="C29" t="n">
-        <v>82.79999999999994</v>
+        <v>62.9</v>
       </c>
       <c r="D29" t="n">
-        <v>79.99302173301757</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="B30" t="n">
-        <v>345.625</v>
+        <v>314</v>
       </c>
       <c r="C30" t="n">
-        <v>344.6666666666667</v>
+        <v>306.7</v>
       </c>
       <c r="D30" t="n">
-        <v>345.0000000000001</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="B31" t="n">
-        <v>275</v>
+        <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>276.7333333333335</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>271.2984763036159</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>338.8461538461539</v>
+        <v>37.3</v>
       </c>
       <c r="C32" t="n">
-        <v>335.7333333333332</v>
+        <v>38.1</v>
       </c>
       <c r="D32" t="n">
-        <v>333.4154842122319</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="B33" t="n">
-        <v>323.5</v>
+        <v>43.3</v>
       </c>
       <c r="C33" t="n">
-        <v>326.5333333333336</v>
+        <v>43.8</v>
       </c>
       <c r="D33" t="n">
-        <v>322.1482515537765</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B34" t="n">
-        <v>300</v>
+        <v>283.3</v>
       </c>
       <c r="C34" t="n">
-        <v>303.1999999999998</v>
+        <v>280.8</v>
       </c>
       <c r="D34" t="n">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="B35" t="n">
-        <v>62.22222222222221</v>
+        <v>305.6</v>
       </c>
       <c r="C35" t="n">
-        <v>64.86666666666672</v>
+        <v>305.3</v>
       </c>
       <c r="D35" t="n">
-        <v>65</v>
+        <v>302.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>345</v>
+        <v>5</v>
       </c>
       <c r="B36" t="n">
-        <v>345.625</v>
+        <v>2.7</v>
       </c>
       <c r="C36" t="n">
-        <v>344.9333333333335</v>
+        <v>4.4</v>
       </c>
       <c r="D36" t="n">
-        <v>345</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
@@ -950,195 +950,195 @@
         <v>59.99999999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>62.22222222222221</v>
+        <v>52.5</v>
       </c>
       <c r="C37" t="n">
-        <v>58.93333333333329</v>
+        <v>55.3</v>
       </c>
       <c r="D37" t="n">
-        <v>53.50945119355687</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="B38" t="n">
-        <v>305</v>
+        <v>53.1</v>
       </c>
       <c r="C38" t="n">
-        <v>300.8666666666663</v>
+        <v>49.3</v>
       </c>
       <c r="D38" t="n">
-        <v>296.4789919750945</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>275</v>
+        <v>43.3</v>
       </c>
       <c r="C39" t="n">
-        <v>274.6666666666666</v>
+        <v>43.8</v>
       </c>
       <c r="D39" t="n">
-        <v>271.4501093830714</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>345</v>
       </c>
       <c r="B40" t="n">
-        <v>6.76470588235294</v>
+        <v>344.2</v>
       </c>
       <c r="C40" t="n">
-        <v>4.999999999999995</v>
+        <v>344.4</v>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>62.22222222222221</v>
+        <v>43.3</v>
       </c>
       <c r="C41" t="n">
-        <v>61.33333333333331</v>
+        <v>43.8</v>
       </c>
       <c r="D41" t="n">
-        <v>76.66685315021158</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="B42" t="n">
-        <v>32.14285714285715</v>
+        <v>297.5</v>
       </c>
       <c r="C42" t="n">
-        <v>30.53333333333331</v>
+        <v>294.9</v>
       </c>
       <c r="D42" t="n">
-        <v>30.2977966431843</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="B43" t="n">
-        <v>6.76470588235294</v>
+        <v>332.9</v>
       </c>
       <c r="C43" t="n">
-        <v>10.79999999999999</v>
+        <v>333.7</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B44" t="n">
-        <v>338.8461538461539</v>
+        <v>352.2</v>
       </c>
       <c r="C44" t="n">
-        <v>337.2666666666664</v>
+        <v>350</v>
       </c>
       <c r="D44" t="n">
-        <v>337.2813808383942</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>43.3</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>43.8</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="B46" t="n">
-        <v>293.3333333333333</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>293.3333333333332</v>
+        <v>67</v>
       </c>
       <c r="D46" t="n">
-        <v>289.3202585004187</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>345.625</v>
+        <v>52.5</v>
       </c>
       <c r="C47" t="n">
-        <v>346.6</v>
+        <v>57.6</v>
       </c>
       <c r="D47" t="n">
-        <v>345</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="B48" t="n">
-        <v>323.5</v>
+        <v>77.8</v>
       </c>
       <c r="C48" t="n">
-        <v>328.2666666666668</v>
+        <v>75.2</v>
       </c>
       <c r="D48" t="n">
-        <v>329.7586026348816</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="B49" t="n">
-        <v>352.4999999999999</v>
+        <v>69</v>
       </c>
       <c r="C49" t="n">
-        <v>352.0666666666665</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>353.7929670383106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>355</v>
+        <v>30</v>
       </c>
       <c r="B50" t="n">
-        <v>352.4999999999999</v>
+        <v>29.7</v>
       </c>
       <c r="C50" t="n">
-        <v>316.9999999999999</v>
+        <v>28.3</v>
       </c>
       <c r="D50" t="n">
-        <v>276.6712087823137</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -1146,318 +1146,318 @@
         <v>300</v>
       </c>
       <c r="B51" t="n">
-        <v>293.3333333333333</v>
+        <v>298.6</v>
       </c>
       <c r="C51" t="n">
-        <v>296.0666666666668</v>
+        <v>294</v>
       </c>
       <c r="D51" t="n">
-        <v>294.9999999999999</v>
+        <v>292.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>59.99999999999999</v>
+        <v>80</v>
       </c>
       <c r="B52" t="n">
-        <v>74.2</v>
+        <v>85.5</v>
       </c>
       <c r="C52" t="n">
-        <v>68.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="D52" t="n">
-        <v>69.52020909263868</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="B53" t="n">
-        <v>310.5882352941176</v>
+        <v>344.2</v>
       </c>
       <c r="C53" t="n">
-        <v>313.6666666666662</v>
+        <v>344.4</v>
       </c>
       <c r="D53" t="n">
-        <v>315</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>352.2</v>
       </c>
       <c r="C54" t="n">
-        <v>20.19999999999998</v>
+        <v>350</v>
       </c>
       <c r="D54" t="n">
-        <v>25</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="B55" t="n">
-        <v>323.5</v>
+        <v>270</v>
       </c>
       <c r="C55" t="n">
-        <v>322.0666666666666</v>
+        <v>271.1</v>
       </c>
       <c r="D55" t="n">
-        <v>321.8693718981369</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B56" t="n">
-        <v>323.5</v>
+        <v>317.7</v>
       </c>
       <c r="C56" t="n">
-        <v>321.7333333333332</v>
+        <v>317</v>
       </c>
       <c r="D56" t="n">
-        <v>323.3248732691276</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="B57" t="n">
-        <v>305</v>
+        <v>16.5</v>
       </c>
       <c r="C57" t="n">
-        <v>304.7999999999998</v>
+        <v>19.9</v>
       </c>
       <c r="D57" t="n">
-        <v>298.2602916872337</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>315</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>317.5</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>316.3999999999995</v>
+        <v>58.1</v>
       </c>
       <c r="D58" t="n">
-        <v>315</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="B59" t="n">
-        <v>338.8461538461539</v>
+        <v>295</v>
       </c>
       <c r="C59" t="n">
-        <v>337.9999999999998</v>
+        <v>278.3</v>
       </c>
       <c r="D59" t="n">
-        <v>340</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>35</v>
+        <v>285</v>
       </c>
       <c r="B60" t="n">
-        <v>32.14285714285715</v>
+        <v>295</v>
       </c>
       <c r="C60" t="n">
-        <v>34.40000000000002</v>
+        <v>284.7</v>
       </c>
       <c r="D60" t="n">
-        <v>35</v>
+        <v>296.1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c r="C61" t="n">
-        <v>17.73333333333332</v>
+        <v>282</v>
       </c>
       <c r="D61" t="n">
-        <v>18.39337842603448</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
+        <v>340</v>
+      </c>
+      <c r="B62" t="n">
+        <v>344.2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>342.7</v>
+      </c>
+      <c r="D62" t="n">
         <v>345</v>
-      </c>
-      <c r="B62" t="n">
-        <v>345.625</v>
-      </c>
-      <c r="C62" t="n">
-        <v>345.2000000000002</v>
-      </c>
-      <c r="D62" t="n">
-        <v>345.2445510252689</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B63" t="n">
-        <v>44.66666666666667</v>
+        <v>53.1</v>
       </c>
       <c r="C63" t="n">
-        <v>47.93333333333336</v>
+        <v>55.7</v>
       </c>
       <c r="D63" t="n">
-        <v>51.26356352640975</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="B64" t="n">
-        <v>323.5</v>
+        <v>52.5</v>
       </c>
       <c r="C64" t="n">
-        <v>320.1999999999997</v>
+        <v>55.3</v>
       </c>
       <c r="D64" t="n">
-        <v>320</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>50</v>
+        <v>295</v>
       </c>
       <c r="B65" t="n">
-        <v>44.66666666666667</v>
+        <v>298.6</v>
       </c>
       <c r="C65" t="n">
-        <v>43.93333333333334</v>
+        <v>288.8</v>
       </c>
       <c r="D65" t="n">
-        <v>44.6953968487273</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>350</v>
+        <v>25</v>
       </c>
       <c r="B66" t="n">
-        <v>352.4999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="C66" t="n">
-        <v>351.6666666666664</v>
+        <v>22.4</v>
       </c>
       <c r="D66" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>338.8461538461539</v>
+        <v>2.7</v>
       </c>
       <c r="C67" t="n">
-        <v>340.0666666666665</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>330</v>
+        <v>75</v>
       </c>
       <c r="B68" t="n">
-        <v>323.5</v>
+        <v>75</v>
       </c>
       <c r="C68" t="n">
-        <v>328.0000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="D68" t="n">
-        <v>330.9710495463987</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="B69" t="n">
-        <v>84.37500000000001</v>
+        <v>275</v>
       </c>
       <c r="C69" t="n">
-        <v>87.00000000000003</v>
+        <v>277.9</v>
       </c>
       <c r="D69" t="n">
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B70" t="n">
-        <v>56.66666666666666</v>
+        <v>67.5</v>
       </c>
       <c r="C70" t="n">
-        <v>56.53333333333331</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="B71" t="n">
-        <v>6.76470588235294</v>
+        <v>332.9</v>
       </c>
       <c r="C71" t="n">
-        <v>4.999999999999995</v>
+        <v>330</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>37.72727272727273</v>
+        <v>67.5</v>
       </c>
       <c r="C72" t="n">
-        <v>36.40000000000001</v>
+        <v>67</v>
       </c>
       <c r="D72" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>84.37500000000001</v>
+        <v>85.5</v>
       </c>
       <c r="C73" t="n">
-        <v>80.99999999999994</v>
+        <v>82.8</v>
       </c>
       <c r="D73" t="n">
         <v>80</v>

--- a/psio/projekt/modeling/results/models_results_test_data.xlsx
+++ b/psio/projekt/modeling/results/models_results_test_data.xlsx
@@ -441,578 +441,578 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor(max_depth=13, max_leaf_nodes=35, min_samples_split=5)</t>
+          <t>DecisionTreeRegressor(max_depth=7, max_leaf_nodes=32, min_samples_split=5)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor(min_samples_split=8, n_estimators=3)</t>
+          <t>RandomForestRegressor(min_samples_leaf=2, min_samples_split=8, n_estimators=2)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>KNeighborsRegressor(n_neighbors=2, weights='distance')</t>
+          <t>KNeighborsRegressor(n_neighbors=3, weights='distance')</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="B2" t="n">
-        <v>332.9</v>
+        <v>274.6</v>
       </c>
       <c r="C2" t="n">
-        <v>333.7</v>
+        <v>277.4</v>
       </c>
       <c r="D2" t="n">
-        <v>335</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="B3" t="n">
-        <v>23.6</v>
+        <v>339.7</v>
       </c>
       <c r="C3" t="n">
-        <v>24.2</v>
+        <v>336.4</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>355</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>352.2</v>
+        <v>2.3</v>
       </c>
       <c r="C4" t="n">
-        <v>351.3</v>
+        <v>11.4</v>
       </c>
       <c r="D4" t="n">
-        <v>350</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="B5" t="n">
-        <v>16.5</v>
+        <v>339.7</v>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>305.6</v>
+        <v>17.7</v>
       </c>
       <c r="C6" t="n">
-        <v>312.9</v>
+        <v>26.7</v>
       </c>
       <c r="D6" t="n">
-        <v>310</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>300</v>
+        <v>85</v>
       </c>
       <c r="B7" t="n">
-        <v>303.3</v>
+        <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>299</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B8" t="n">
-        <v>298.6</v>
+        <v>288.7</v>
       </c>
       <c r="C8" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D8" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>43.3</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>43.8</v>
+        <v>11.4</v>
       </c>
       <c r="D9" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>59.99999999999999</v>
+        <v>30</v>
       </c>
       <c r="B10" t="n">
-        <v>67.5</v>
+        <v>31.2</v>
       </c>
       <c r="C10" t="n">
-        <v>62.9</v>
+        <v>31.5</v>
       </c>
       <c r="D10" t="n">
-        <v>72.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>53.1</v>
+        <v>17.7</v>
       </c>
       <c r="C11" t="n">
-        <v>55.7</v>
+        <v>18.8</v>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>65</v>
+        <v>340</v>
       </c>
       <c r="B12" t="n">
-        <v>64.09999999999999</v>
+        <v>339.7</v>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>342.5</v>
       </c>
       <c r="D12" t="n">
-        <v>65</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>320</v>
+        <v>35</v>
       </c>
       <c r="B13" t="n">
-        <v>317.7</v>
+        <v>31.2</v>
       </c>
       <c r="C13" t="n">
-        <v>323</v>
+        <v>34.2</v>
       </c>
       <c r="D13" t="n">
-        <v>320</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="B14" t="n">
-        <v>332.9</v>
+        <v>274.6</v>
       </c>
       <c r="C14" t="n">
-        <v>333.6</v>
+        <v>277.4</v>
       </c>
       <c r="D14" t="n">
-        <v>330</v>
+        <v>283.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="B15" t="n">
-        <v>297.5</v>
+        <v>85</v>
       </c>
       <c r="C15" t="n">
-        <v>294.9</v>
+        <v>76.7</v>
       </c>
       <c r="D15" t="n">
-        <v>286.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>59.99999999999999</v>
+        <v>340</v>
       </c>
       <c r="B16" t="n">
-        <v>87.5</v>
+        <v>339.7</v>
       </c>
       <c r="C16" t="n">
-        <v>83.90000000000001</v>
+        <v>338.9</v>
       </c>
       <c r="D16" t="n">
-        <v>86</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="B17" t="n">
-        <v>77.8</v>
+        <v>270</v>
       </c>
       <c r="C17" t="n">
-        <v>72.09999999999999</v>
+        <v>271.9</v>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n">
-        <v>332.9</v>
+        <v>31.2</v>
       </c>
       <c r="C18" t="n">
-        <v>333.6</v>
+        <v>29.3</v>
       </c>
       <c r="D18" t="n">
-        <v>330</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="B19" t="n">
-        <v>85.5</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>82.8</v>
+        <v>11.4</v>
       </c>
       <c r="D19" t="n">
-        <v>76.8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="B20" t="n">
-        <v>305.6</v>
+        <v>17.7</v>
       </c>
       <c r="C20" t="n">
-        <v>312.9</v>
+        <v>26.7</v>
       </c>
       <c r="D20" t="n">
-        <v>310</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>75</v>
+        <v>31.2</v>
       </c>
       <c r="C21" t="n">
-        <v>83.7</v>
+        <v>29.3</v>
       </c>
       <c r="D21" t="n">
-        <v>70</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="B22" t="n">
-        <v>87.5</v>
+        <v>315.6</v>
       </c>
       <c r="C22" t="n">
-        <v>83.90000000000001</v>
+        <v>315</v>
       </c>
       <c r="D22" t="n">
-        <v>85.59999999999999</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>290</v>
+        <v>345</v>
       </c>
       <c r="B23" t="n">
-        <v>285</v>
+        <v>345.5</v>
       </c>
       <c r="C23" t="n">
-        <v>282</v>
+        <v>342.7</v>
       </c>
       <c r="D23" t="n">
-        <v>290</v>
+        <v>343.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B24" t="n">
-        <v>75</v>
+        <v>38.3</v>
       </c>
       <c r="C24" t="n">
-        <v>77.40000000000001</v>
+        <v>39.1</v>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B25" t="n">
-        <v>23.6</v>
+        <v>51.7</v>
       </c>
       <c r="C25" t="n">
-        <v>22.4</v>
+        <v>52.5</v>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="B26" t="n">
-        <v>2.7</v>
+        <v>274.6</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>273.3</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B27" t="n">
-        <v>29.7</v>
+        <v>17.7</v>
       </c>
       <c r="C27" t="n">
-        <v>30.6</v>
+        <v>24.5</v>
       </c>
       <c r="D27" t="n">
-        <v>37.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="B28" t="n">
-        <v>323.9</v>
+        <v>339.7</v>
       </c>
       <c r="C28" t="n">
-        <v>323.1</v>
+        <v>342.5</v>
       </c>
       <c r="D28" t="n">
-        <v>320</v>
+        <v>341.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>59.99999999999999</v>
+        <v>325</v>
       </c>
       <c r="B29" t="n">
-        <v>67.5</v>
+        <v>323.9</v>
       </c>
       <c r="C29" t="n">
-        <v>62.9</v>
+        <v>323.3</v>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>305</v>
+        <v>65</v>
       </c>
       <c r="B30" t="n">
-        <v>314</v>
+        <v>51.7</v>
       </c>
       <c r="C30" t="n">
-        <v>306.7</v>
+        <v>52.5</v>
       </c>
       <c r="D30" t="n">
-        <v>305</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>48.3</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>61.8</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>52.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="B32" t="n">
-        <v>37.3</v>
+        <v>339.7</v>
       </c>
       <c r="C32" t="n">
-        <v>38.1</v>
+        <v>338.9</v>
       </c>
       <c r="D32" t="n">
-        <v>40</v>
+        <v>335.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B33" t="n">
-        <v>43.3</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
-        <v>43.8</v>
+        <v>11.4</v>
       </c>
       <c r="D33" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="B34" t="n">
-        <v>283.3</v>
+        <v>2.3</v>
       </c>
       <c r="C34" t="n">
-        <v>280.8</v>
+        <v>2.8</v>
       </c>
       <c r="D34" t="n">
-        <v>290</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="B35" t="n">
-        <v>305.6</v>
+        <v>277.8</v>
       </c>
       <c r="C35" t="n">
-        <v>305.3</v>
+        <v>286.9</v>
       </c>
       <c r="D35" t="n">
-        <v>302.6</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B36" t="n">
-        <v>2.7</v>
+        <v>17.7</v>
       </c>
       <c r="C36" t="n">
-        <v>4.4</v>
+        <v>18.8</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>59.99999999999999</v>
+        <v>5</v>
       </c>
       <c r="B37" t="n">
-        <v>52.5</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>55.3</v>
+        <v>2.8</v>
       </c>
       <c r="D37" t="n">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>53.1</v>
+        <v>44.5</v>
       </c>
       <c r="C38" t="n">
-        <v>49.3</v>
+        <v>44.3</v>
       </c>
       <c r="D38" t="n">
-        <v>47.7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="B39" t="n">
-        <v>43.3</v>
+        <v>323.9</v>
       </c>
       <c r="C39" t="n">
-        <v>43.8</v>
+        <v>322.3</v>
       </c>
       <c r="D39" t="n">
-        <v>42.2</v>
+        <v>325.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="B40" t="n">
-        <v>344.2</v>
+        <v>277.8</v>
       </c>
       <c r="C40" t="n">
-        <v>344.4</v>
+        <v>281</v>
       </c>
       <c r="D40" t="n">
-        <v>346.5</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="B41" t="n">
-        <v>43.3</v>
+        <v>300</v>
       </c>
       <c r="C41" t="n">
-        <v>43.8</v>
+        <v>301.1</v>
       </c>
       <c r="D41" t="n">
-        <v>41.6</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
@@ -1020,223 +1020,223 @@
         <v>295</v>
       </c>
       <c r="B42" t="n">
-        <v>297.5</v>
+        <v>288.3</v>
       </c>
       <c r="C42" t="n">
-        <v>294.9</v>
+        <v>294.2</v>
       </c>
       <c r="D42" t="n">
-        <v>295</v>
+        <v>291.6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="B43" t="n">
-        <v>332.9</v>
+        <v>300</v>
       </c>
       <c r="C43" t="n">
-        <v>333.7</v>
+        <v>301.1</v>
       </c>
       <c r="D43" t="n">
-        <v>335</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="B44" t="n">
-        <v>352.2</v>
+        <v>315.6</v>
       </c>
       <c r="C44" t="n">
-        <v>350</v>
+        <v>316.1</v>
       </c>
       <c r="D44" t="n">
-        <v>350</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B45" t="n">
-        <v>43.3</v>
+        <v>78.8</v>
       </c>
       <c r="C45" t="n">
-        <v>43.8</v>
+        <v>80.5</v>
       </c>
       <c r="D45" t="n">
-        <v>47.1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B46" t="n">
-        <v>64.09999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="C46" t="n">
-        <v>67</v>
+        <v>15.2</v>
       </c>
       <c r="D46" t="n">
-        <v>73.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="B47" t="n">
-        <v>52.5</v>
+        <v>274.6</v>
       </c>
       <c r="C47" t="n">
-        <v>57.6</v>
+        <v>277.4</v>
       </c>
       <c r="D47" t="n">
-        <v>67.90000000000001</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="B48" t="n">
-        <v>77.8</v>
+        <v>17.7</v>
       </c>
       <c r="C48" t="n">
-        <v>75.2</v>
+        <v>15.2</v>
       </c>
       <c r="D48" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="B49" t="n">
-        <v>69</v>
+        <v>323.9</v>
       </c>
       <c r="C49" t="n">
-        <v>73.59999999999999</v>
+        <v>321</v>
       </c>
       <c r="D49" t="n">
-        <v>70</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B50" t="n">
-        <v>29.7</v>
+        <v>78.8</v>
       </c>
       <c r="C50" t="n">
-        <v>28.3</v>
+        <v>75.5</v>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="B51" t="n">
-        <v>298.6</v>
+        <v>17.7</v>
       </c>
       <c r="C51" t="n">
-        <v>294</v>
+        <v>15.2</v>
       </c>
       <c r="D51" t="n">
-        <v>292.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B52" t="n">
-        <v>85.5</v>
+        <v>85</v>
       </c>
       <c r="C52" t="n">
-        <v>80.5</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>80</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>344.2</v>
+        <v>17.7</v>
       </c>
       <c r="C53" t="n">
-        <v>344.4</v>
+        <v>15.2</v>
       </c>
       <c r="D53" t="n">
-        <v>345</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>350</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>352.2</v>
+        <v>10</v>
       </c>
       <c r="C54" t="n">
-        <v>350</v>
+        <v>11.4</v>
       </c>
       <c r="D54" t="n">
-        <v>345</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="B55" t="n">
-        <v>270</v>
+        <v>77.5</v>
       </c>
       <c r="C55" t="n">
-        <v>271.1</v>
+        <v>80.5</v>
       </c>
       <c r="D55" t="n">
-        <v>270</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="B56" t="n">
-        <v>317.7</v>
+        <v>85</v>
       </c>
       <c r="C56" t="n">
-        <v>317</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>315</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n">
-        <v>16.5</v>
+        <v>38.3</v>
       </c>
       <c r="C57" t="n">
-        <v>19.9</v>
+        <v>39.1</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="58">
@@ -1244,13 +1244,13 @@
         <v>59.99999999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>64.09999999999999</v>
+        <v>61</v>
       </c>
       <c r="C58" t="n">
-        <v>58.1</v>
+        <v>61.8</v>
       </c>
       <c r="D58" t="n">
-        <v>60</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="59">
@@ -1258,41 +1258,41 @@
         <v>285</v>
       </c>
       <c r="B59" t="n">
-        <v>295</v>
+        <v>277.8</v>
       </c>
       <c r="C59" t="n">
-        <v>278.3</v>
+        <v>282.5</v>
       </c>
       <c r="D59" t="n">
-        <v>275</v>
+        <v>275.6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="B60" t="n">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C60" t="n">
-        <v>284.7</v>
+        <v>271.9</v>
       </c>
       <c r="D60" t="n">
-        <v>296.1</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="B61" t="n">
-        <v>285</v>
+        <v>2.3</v>
       </c>
       <c r="C61" t="n">
-        <v>282</v>
+        <v>11.4</v>
       </c>
       <c r="D61" t="n">
-        <v>270</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -1300,167 +1300,167 @@
         <v>340</v>
       </c>
       <c r="B62" t="n">
-        <v>344.2</v>
+        <v>339.7</v>
       </c>
       <c r="C62" t="n">
-        <v>342.7</v>
+        <v>342.5</v>
       </c>
       <c r="D62" t="n">
-        <v>345</v>
+        <v>341.6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>53.1</v>
+        <v>38.3</v>
       </c>
       <c r="C63" t="n">
-        <v>55.7</v>
+        <v>39.1</v>
       </c>
       <c r="D63" t="n">
-        <v>50.6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="B64" t="n">
-        <v>52.5</v>
+        <v>304.4</v>
       </c>
       <c r="C64" t="n">
-        <v>55.3</v>
+        <v>302</v>
       </c>
       <c r="D64" t="n">
-        <v>65</v>
+        <v>299.2</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>295</v>
+        <v>90</v>
       </c>
       <c r="B65" t="n">
-        <v>298.6</v>
+        <v>90</v>
       </c>
       <c r="C65" t="n">
-        <v>288.8</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>295</v>
+        <v>84.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B66" t="n">
-        <v>23.6</v>
+        <v>31.2</v>
       </c>
       <c r="C66" t="n">
-        <v>22.4</v>
+        <v>31.2</v>
       </c>
       <c r="D66" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="B67" t="n">
-        <v>2.7</v>
+        <v>310.4</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>312.3</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>301.8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>75</v>
+        <v>335</v>
       </c>
       <c r="B68" t="n">
-        <v>75</v>
+        <v>339.7</v>
       </c>
       <c r="C68" t="n">
-        <v>83.7</v>
+        <v>338.9</v>
       </c>
       <c r="D68" t="n">
-        <v>70</v>
+        <v>335.9</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="B69" t="n">
-        <v>275</v>
+        <v>315.6</v>
       </c>
       <c r="C69" t="n">
-        <v>277.9</v>
+        <v>315</v>
       </c>
       <c r="D69" t="n">
-        <v>280</v>
+        <v>316.7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="B70" t="n">
-        <v>67.5</v>
+        <v>323.9</v>
       </c>
       <c r="C70" t="n">
-        <v>64.59999999999999</v>
+        <v>321</v>
       </c>
       <c r="D70" t="n">
-        <v>65</v>
+        <v>320.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="B71" t="n">
-        <v>332.9</v>
+        <v>67.3</v>
       </c>
       <c r="C71" t="n">
-        <v>330</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>330</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>70</v>
+        <v>275</v>
       </c>
       <c r="B72" t="n">
-        <v>67.5</v>
+        <v>274.6</v>
       </c>
       <c r="C72" t="n">
-        <v>67</v>
+        <v>277.4</v>
       </c>
       <c r="D72" t="n">
-        <v>70</v>
+        <v>277.9</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>75</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>85.5</v>
+        <v>67.3</v>
       </c>
       <c r="C73" t="n">
-        <v>82.8</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>80</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/psio/projekt/modeling/results/models_results_test_data.xlsx
+++ b/psio/projekt/modeling/results/models_results_test_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,74 +441,74 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor(max_depth=7, max_leaf_nodes=32, min_samples_split=5)</t>
+          <t>DecisionTreeRegressor(max_depth=5, max_leaf_nodes=32, min_samples_split=10)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor(min_samples_leaf=2, min_samples_split=8, n_estimators=2)</t>
+          <t>RandomForestRegressor(min_samples_leaf=2, min_samples_split=4, n_estimators=36)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>KNeighborsRegressor(n_neighbors=3, weights='distance')</t>
+          <t>KNeighborsRegressor(weights='distance')</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>274.6</v>
+        <v>71.7</v>
       </c>
       <c r="C2" t="n">
-        <v>277.4</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>275</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="B3" t="n">
-        <v>339.7</v>
+        <v>320</v>
       </c>
       <c r="C3" t="n">
-        <v>336.4</v>
+        <v>319.4</v>
       </c>
       <c r="D3" t="n">
-        <v>335</v>
+        <v>322.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>2.3</v>
+        <v>23.1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4</v>
+        <v>27.6</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>339.7</v>
+        <v>29.4</v>
       </c>
       <c r="C5" t="n">
-        <v>340</v>
+        <v>32.3</v>
       </c>
       <c r="D5" t="n">
-        <v>340</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="6">
@@ -516,797 +516,797 @@
         <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7</v>
+        <v>29.4</v>
       </c>
       <c r="C6" t="n">
-        <v>26.7</v>
+        <v>29.1</v>
       </c>
       <c r="D6" t="n">
-        <v>33.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B7" t="n">
-        <v>85</v>
+        <v>49.4</v>
       </c>
       <c r="C7" t="n">
-        <v>82.09999999999999</v>
+        <v>49.2</v>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="B8" t="n">
-        <v>288.7</v>
+        <v>46.9</v>
       </c>
       <c r="C8" t="n">
-        <v>287</v>
+        <v>47.6</v>
       </c>
       <c r="D8" t="n">
-        <v>290</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>71.7</v>
       </c>
       <c r="C9" t="n">
-        <v>11.4</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="B10" t="n">
-        <v>31.2</v>
+        <v>322.8</v>
       </c>
       <c r="C10" t="n">
-        <v>31.5</v>
+        <v>320.9</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7</v>
+        <v>275</v>
       </c>
       <c r="C11" t="n">
-        <v>18.8</v>
+        <v>274.5</v>
       </c>
       <c r="D11" t="n">
-        <v>15.6</v>
+        <v>274.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B12" t="n">
-        <v>339.7</v>
+        <v>345.6</v>
       </c>
       <c r="C12" t="n">
-        <v>342.5</v>
+        <v>348</v>
       </c>
       <c r="D12" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B13" t="n">
-        <v>31.2</v>
+        <v>71.7</v>
       </c>
       <c r="C13" t="n">
-        <v>34.2</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="B14" t="n">
-        <v>274.6</v>
+        <v>353.1</v>
       </c>
       <c r="C14" t="n">
-        <v>277.4</v>
+        <v>355</v>
       </c>
       <c r="D14" t="n">
-        <v>283.6</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="B15" t="n">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="C15" t="n">
-        <v>76.7</v>
+        <v>321.6</v>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
-        <v>339.7</v>
+        <v>37.8</v>
       </c>
       <c r="C16" t="n">
-        <v>338.9</v>
+        <v>35.7</v>
       </c>
       <c r="D16" t="n">
-        <v>340</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="B17" t="n">
-        <v>270</v>
+        <v>322.8</v>
       </c>
       <c r="C17" t="n">
-        <v>271.9</v>
+        <v>321</v>
       </c>
       <c r="D17" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>31.2</v>
+        <v>6.7</v>
       </c>
       <c r="C18" t="n">
-        <v>29.3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>11.4</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>82.09999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="B20" t="n">
-        <v>17.7</v>
+        <v>280.9</v>
       </c>
       <c r="C20" t="n">
-        <v>26.7</v>
+        <v>284</v>
       </c>
       <c r="D20" t="n">
-        <v>33.6</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>31.2</v>
+        <v>23.1</v>
       </c>
       <c r="C21" t="n">
-        <v>29.3</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>31.7</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="B22" t="n">
-        <v>315.6</v>
+        <v>353.1</v>
       </c>
       <c r="C22" t="n">
-        <v>315</v>
+        <v>350.9</v>
       </c>
       <c r="D22" t="n">
-        <v>315</v>
+        <v>347.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>345</v>
+        <v>65</v>
       </c>
       <c r="B23" t="n">
-        <v>345.5</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>342.7</v>
+        <v>77.5</v>
       </c>
       <c r="D23" t="n">
-        <v>343.7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="B24" t="n">
-        <v>38.3</v>
+        <v>345.6</v>
       </c>
       <c r="C24" t="n">
-        <v>39.1</v>
+        <v>346.8</v>
       </c>
       <c r="D24" t="n">
-        <v>40</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="B25" t="n">
-        <v>51.7</v>
+        <v>280.9</v>
       </c>
       <c r="C25" t="n">
-        <v>52.5</v>
+        <v>280.4</v>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>281.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>274.6</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>273.3</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>17.7</v>
+        <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>24.5</v>
+        <v>59.6</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="B28" t="n">
-        <v>339.7</v>
+        <v>64.7</v>
       </c>
       <c r="C28" t="n">
-        <v>342.5</v>
+        <v>63.9</v>
       </c>
       <c r="D28" t="n">
-        <v>341.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="B29" t="n">
-        <v>323.9</v>
+        <v>46.9</v>
       </c>
       <c r="C29" t="n">
-        <v>323.3</v>
+        <v>44.6</v>
       </c>
       <c r="D29" t="n">
-        <v>325.9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>51.7</v>
+        <v>16.2</v>
       </c>
       <c r="C30" t="n">
-        <v>52.5</v>
+        <v>13.4</v>
       </c>
       <c r="D30" t="n">
-        <v>50</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="B31" t="n">
-        <v>48.3</v>
+        <v>275</v>
       </c>
       <c r="C31" t="n">
-        <v>61.8</v>
+        <v>277.6</v>
       </c>
       <c r="D31" t="n">
-        <v>52.1</v>
+        <v>282.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>335</v>
+        <v>10</v>
       </c>
       <c r="B32" t="n">
-        <v>339.7</v>
+        <v>6.7</v>
       </c>
       <c r="C32" t="n">
-        <v>338.9</v>
+        <v>10.6</v>
       </c>
       <c r="D32" t="n">
-        <v>335.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="B33" t="n">
-        <v>10</v>
+        <v>333.6</v>
       </c>
       <c r="C33" t="n">
-        <v>11.4</v>
+        <v>331.9</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="B34" t="n">
-        <v>2.3</v>
+        <v>312.9</v>
       </c>
       <c r="C34" t="n">
-        <v>2.8</v>
+        <v>308.9</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B35" t="n">
-        <v>277.8</v>
+        <v>306</v>
       </c>
       <c r="C35" t="n">
-        <v>286.9</v>
+        <v>296.9</v>
       </c>
       <c r="D35" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B36" t="n">
-        <v>17.7</v>
+        <v>23.1</v>
       </c>
       <c r="C36" t="n">
-        <v>18.8</v>
+        <v>25.5</v>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
+        <v>49.4</v>
       </c>
       <c r="C37" t="n">
-        <v>2.8</v>
+        <v>49</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B38" t="n">
-        <v>44.5</v>
+        <v>29.4</v>
       </c>
       <c r="C38" t="n">
-        <v>44.3</v>
+        <v>28.3</v>
       </c>
       <c r="D38" t="n">
-        <v>45</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="B39" t="n">
-        <v>323.9</v>
+        <v>297.8</v>
       </c>
       <c r="C39" t="n">
-        <v>322.3</v>
+        <v>294.5</v>
       </c>
       <c r="D39" t="n">
-        <v>325.9</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="B40" t="n">
-        <v>277.8</v>
+        <v>297.8</v>
       </c>
       <c r="C40" t="n">
-        <v>281</v>
+        <v>303.2</v>
       </c>
       <c r="D40" t="n">
-        <v>270</v>
+        <v>304.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="B41" t="n">
-        <v>300</v>
+        <v>16.2</v>
       </c>
       <c r="C41" t="n">
-        <v>301.1</v>
+        <v>15.3</v>
       </c>
       <c r="D41" t="n">
-        <v>300</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B42" t="n">
-        <v>288.3</v>
+        <v>275</v>
       </c>
       <c r="C42" t="n">
-        <v>294.2</v>
+        <v>277.9</v>
       </c>
       <c r="D42" t="n">
-        <v>291.6</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="B43" t="n">
-        <v>300</v>
+        <v>345.6</v>
       </c>
       <c r="C43" t="n">
-        <v>301.1</v>
+        <v>345</v>
       </c>
       <c r="D43" t="n">
-        <v>295</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="B44" t="n">
-        <v>315.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>316.1</v>
+        <v>78.3</v>
       </c>
       <c r="D44" t="n">
-        <v>318.8</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="B45" t="n">
-        <v>78.8</v>
+        <v>353.1</v>
       </c>
       <c r="C45" t="n">
-        <v>80.5</v>
+        <v>355</v>
       </c>
       <c r="D45" t="n">
-        <v>80</v>
+        <v>355</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="B46" t="n">
-        <v>17.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>15.2</v>
+        <v>84.2</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>274.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>277.4</v>
+        <v>81.2</v>
       </c>
       <c r="D47" t="n">
-        <v>280</v>
+        <v>83.40000000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="B48" t="n">
-        <v>17.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>15.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="B49" t="n">
-        <v>323.9</v>
+        <v>64.7</v>
       </c>
       <c r="C49" t="n">
-        <v>321</v>
+        <v>65.3</v>
       </c>
       <c r="D49" t="n">
-        <v>320</v>
+        <v>59.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B50" t="n">
-        <v>78.8</v>
+        <v>23.1</v>
       </c>
       <c r="C50" t="n">
-        <v>75.5</v>
+        <v>25.1</v>
       </c>
       <c r="D50" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="B51" t="n">
-        <v>17.7</v>
+        <v>280.9</v>
       </c>
       <c r="C51" t="n">
-        <v>15.2</v>
+        <v>286.3</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="B52" t="n">
-        <v>85</v>
+        <v>333.6</v>
       </c>
       <c r="C52" t="n">
-        <v>82.09999999999999</v>
+        <v>330.4</v>
       </c>
       <c r="D52" t="n">
-        <v>83.5</v>
+        <v>326.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
       <c r="B53" t="n">
-        <v>17.7</v>
+        <v>297.8</v>
       </c>
       <c r="C53" t="n">
-        <v>15.2</v>
+        <v>300.8</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10</v>
+        <v>345</v>
       </c>
       <c r="B54" t="n">
-        <v>10</v>
+        <v>345.6</v>
       </c>
       <c r="C54" t="n">
-        <v>11.4</v>
+        <v>345</v>
       </c>
       <c r="D54" t="n">
-        <v>10</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="B55" t="n">
-        <v>77.5</v>
+        <v>280.9</v>
       </c>
       <c r="C55" t="n">
-        <v>80.5</v>
+        <v>284</v>
       </c>
       <c r="D55" t="n">
-        <v>66.2</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B56" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C56" t="n">
-        <v>82.09999999999999</v>
+        <v>12.9</v>
       </c>
       <c r="D56" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B57" t="n">
-        <v>38.3</v>
+        <v>43.9</v>
       </c>
       <c r="C57" t="n">
-        <v>39.1</v>
+        <v>44.6</v>
       </c>
       <c r="D57" t="n">
-        <v>38.2</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>59.99999999999999</v>
+        <v>65</v>
       </c>
       <c r="B58" t="n">
-        <v>61</v>
+        <v>64.7</v>
       </c>
       <c r="C58" t="n">
-        <v>61.8</v>
+        <v>63.9</v>
       </c>
       <c r="D58" t="n">
-        <v>64.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="B59" t="n">
-        <v>277.8</v>
+        <v>353.1</v>
       </c>
       <c r="C59" t="n">
-        <v>282.5</v>
+        <v>355</v>
       </c>
       <c r="D59" t="n">
-        <v>275.6</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B60" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C60" t="n">
-        <v>271.9</v>
+        <v>288</v>
       </c>
       <c r="D60" t="n">
-        <v>270</v>
+        <v>287.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="B61" t="n">
-        <v>2.3</v>
+        <v>320</v>
       </c>
       <c r="C61" t="n">
-        <v>11.4</v>
+        <v>317.5</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>339.7</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>342.5</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>341.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1314,153 +1314,405 @@
         <v>40</v>
       </c>
       <c r="B63" t="n">
-        <v>38.3</v>
+        <v>43.9</v>
       </c>
       <c r="C63" t="n">
-        <v>39.1</v>
+        <v>44.6</v>
       </c>
       <c r="D63" t="n">
-        <v>40</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="B64" t="n">
-        <v>304.4</v>
+        <v>71.7</v>
       </c>
       <c r="C64" t="n">
-        <v>302</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>299.2</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="B65" t="n">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="C65" t="n">
-        <v>84.59999999999999</v>
+        <v>317.8</v>
       </c>
       <c r="D65" t="n">
-        <v>84.5</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>30</v>
+        <v>325</v>
       </c>
       <c r="B66" t="n">
-        <v>31.2</v>
+        <v>322.8</v>
       </c>
       <c r="C66" t="n">
-        <v>31.2</v>
+        <v>323.4</v>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>305</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>310.4</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>312.3</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>301.8</v>
+        <v>75.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>335</v>
+        <v>5</v>
       </c>
       <c r="B68" t="n">
-        <v>339.7</v>
+        <v>6.7</v>
       </c>
       <c r="C68" t="n">
-        <v>338.9</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>335.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>325</v>
+        <v>5</v>
       </c>
       <c r="B69" t="n">
-        <v>315.6</v>
+        <v>6.7</v>
       </c>
       <c r="C69" t="n">
-        <v>315</v>
+        <v>6.4</v>
       </c>
       <c r="D69" t="n">
-        <v>316.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="B70" t="n">
-        <v>323.9</v>
+        <v>275</v>
       </c>
       <c r="C70" t="n">
-        <v>321</v>
+        <v>274.6</v>
       </c>
       <c r="D70" t="n">
-        <v>320.4</v>
+        <v>271.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="B71" t="n">
-        <v>67.3</v>
+        <v>312.9</v>
       </c>
       <c r="C71" t="n">
-        <v>64.90000000000001</v>
+        <v>316.6</v>
       </c>
       <c r="D71" t="n">
-        <v>66.40000000000001</v>
+        <v>315</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="B72" t="n">
-        <v>274.6</v>
+        <v>64.7</v>
       </c>
       <c r="C72" t="n">
-        <v>277.4</v>
+        <v>63.9</v>
       </c>
       <c r="D72" t="n">
-        <v>277.9</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>59.99999999999999</v>
+        <v>80</v>
       </c>
       <c r="B73" t="n">
-        <v>67.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>70.90000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>66.59999999999999</v>
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35</v>
+      </c>
+      <c r="B74" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>300</v>
+      </c>
+      <c r="B75" t="n">
+        <v>297.8</v>
+      </c>
+      <c r="C75" t="n">
+        <v>297.3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>297.1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>71.7</v>
+      </c>
+      <c r="C76" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D76" t="n">
+        <v>75.40000000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>315</v>
+      </c>
+      <c r="B77" t="n">
+        <v>312.9</v>
+      </c>
+      <c r="C77" t="n">
+        <v>315.1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>330</v>
+      </c>
+      <c r="B78" t="n">
+        <v>333.6</v>
+      </c>
+      <c r="C78" t="n">
+        <v>334.9</v>
+      </c>
+      <c r="D78" t="n">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>90</v>
+      </c>
+      <c r="B79" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="D79" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35</v>
+      </c>
+      <c r="B80" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C80" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35</v>
+      </c>
+      <c r="B81" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C81" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D81" t="n">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>335</v>
+      </c>
+      <c r="B82" t="n">
+        <v>322.8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>322.2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>75</v>
+      </c>
+      <c r="B83" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="D83" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>340</v>
+      </c>
+      <c r="B84" t="n">
+        <v>339.6</v>
+      </c>
+      <c r="C84" t="n">
+        <v>339.7</v>
+      </c>
+      <c r="D84" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>20</v>
+      </c>
+      <c r="B85" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>19</v>
+      </c>
+      <c r="D85" t="n">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>25</v>
+      </c>
+      <c r="B86" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>80</v>
+      </c>
+      <c r="B87" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="C87" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>40</v>
+      </c>
+      <c r="B88" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C88" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>315</v>
+      </c>
+      <c r="B89" t="n">
+        <v>320</v>
+      </c>
+      <c r="C89" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>317.1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>45</v>
+      </c>
+      <c r="B90" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C90" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>280</v>
+      </c>
+      <c r="B91" t="n">
+        <v>280.9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>279</v>
+      </c>
+      <c r="D91" t="n">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/psio/projekt/modeling/results/models_results_test_data.xlsx
+++ b/psio/projekt/modeling/results/models_results_test_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DecisionTreeRegressor(max_depth=5, max_leaf_nodes=32, min_samples_split=10)</t>
+          <t>DecisionTreeRegressor(max_depth=10, max_leaf_nodes=25, min_samples_split=8)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RandomForestRegressor(min_samples_leaf=2, min_samples_split=4, n_estimators=36)</t>
+          <t>RandomForestRegressor(min_samples_leaf=2, min_samples_split=5, n_estimators=6)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -457,282 +457,282 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="B2" t="n">
-        <v>71.7</v>
+        <v>275.6</v>
       </c>
       <c r="C2" t="n">
-        <v>71.90000000000001</v>
+        <v>278.8</v>
       </c>
       <c r="D2" t="n">
-        <v>88.8</v>
+        <v>274.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="B3" t="n">
-        <v>320</v>
+        <v>50.1</v>
       </c>
       <c r="C3" t="n">
-        <v>319.4</v>
+        <v>48.7</v>
       </c>
       <c r="D3" t="n">
-        <v>322.6</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
-        <v>23.1</v>
+        <v>17.6</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6</v>
+        <v>19.4</v>
       </c>
       <c r="D4" t="n">
-        <v>27.7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4</v>
+        <v>64.3</v>
       </c>
       <c r="C5" t="n">
-        <v>32.3</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>37.1</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>30</v>
+        <v>315</v>
       </c>
       <c r="B6" t="n">
-        <v>29.4</v>
+        <v>315.7</v>
       </c>
       <c r="C6" t="n">
-        <v>29.1</v>
+        <v>317.6</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>316.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="B7" t="n">
-        <v>49.4</v>
+        <v>315.7</v>
       </c>
       <c r="C7" t="n">
-        <v>49.2</v>
+        <v>312.5</v>
       </c>
       <c r="D7" t="n">
-        <v>55</v>
+        <v>313.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="B8" t="n">
-        <v>46.9</v>
+        <v>281</v>
       </c>
       <c r="C8" t="n">
-        <v>47.6</v>
+        <v>277.6</v>
       </c>
       <c r="D8" t="n">
-        <v>48.4</v>
+        <v>282.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>71.7</v>
+        <v>7.2</v>
       </c>
       <c r="C9" t="n">
-        <v>70.40000000000001</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="B10" t="n">
-        <v>322.8</v>
+        <v>352.7</v>
       </c>
       <c r="C10" t="n">
-        <v>320.9</v>
+        <v>350</v>
       </c>
       <c r="D10" t="n">
-        <v>320</v>
+        <v>349.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="B11" t="n">
-        <v>275</v>
+        <v>83.5</v>
       </c>
       <c r="C11" t="n">
-        <v>274.5</v>
+        <v>79.2</v>
       </c>
       <c r="D11" t="n">
-        <v>274.6</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>345.6</v>
+        <v>39.8</v>
       </c>
       <c r="C12" t="n">
-        <v>348</v>
+        <v>36.4</v>
       </c>
       <c r="D12" t="n">
-        <v>350</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="B13" t="n">
-        <v>71.7</v>
+        <v>304.7</v>
       </c>
       <c r="C13" t="n">
-        <v>70.40000000000001</v>
+        <v>304.2</v>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>305.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="B14" t="n">
-        <v>353.1</v>
+        <v>298.3</v>
       </c>
       <c r="C14" t="n">
-        <v>355</v>
+        <v>278.5</v>
       </c>
       <c r="D14" t="n">
-        <v>355</v>
+        <v>289.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="B15" t="n">
-        <v>320</v>
+        <v>343.3</v>
       </c>
       <c r="C15" t="n">
-        <v>321.6</v>
+        <v>344.2</v>
       </c>
       <c r="D15" t="n">
-        <v>330</v>
+        <v>343.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="B16" t="n">
-        <v>37.8</v>
+        <v>281</v>
       </c>
       <c r="C16" t="n">
-        <v>35.7</v>
+        <v>277.2</v>
       </c>
       <c r="D16" t="n">
-        <v>35</v>
+        <v>278.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B17" t="n">
-        <v>322.8</v>
+        <v>307.5</v>
       </c>
       <c r="C17" t="n">
-        <v>321</v>
+        <v>305.9</v>
       </c>
       <c r="D17" t="n">
-        <v>320</v>
+        <v>298.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>6.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>74.7</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="C19" t="n">
-        <v>82.09999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="D19" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="B20" t="n">
-        <v>280.9</v>
+        <v>295.3</v>
       </c>
       <c r="C20" t="n">
-        <v>284</v>
+        <v>300.2</v>
       </c>
       <c r="D20" t="n">
-        <v>280</v>
+        <v>294.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B21" t="n">
-        <v>23.1</v>
+        <v>28.6</v>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>32.1</v>
       </c>
       <c r="D21" t="n">
-        <v>24.5</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="22">
@@ -740,153 +740,153 @@
         <v>350</v>
       </c>
       <c r="B22" t="n">
-        <v>353.1</v>
+        <v>352.7</v>
       </c>
       <c r="C22" t="n">
-        <v>350.9</v>
+        <v>350</v>
       </c>
       <c r="D22" t="n">
-        <v>347.9</v>
+        <v>349.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="B23" t="n">
-        <v>75.40000000000001</v>
+        <v>307.5</v>
       </c>
       <c r="C23" t="n">
-        <v>77.5</v>
+        <v>307</v>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="B24" t="n">
-        <v>345.6</v>
+        <v>315.7</v>
       </c>
       <c r="C24" t="n">
-        <v>346.8</v>
+        <v>317.7</v>
       </c>
       <c r="D24" t="n">
-        <v>345</v>
+        <v>318.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="B25" t="n">
-        <v>280.9</v>
+        <v>315.7</v>
       </c>
       <c r="C25" t="n">
-        <v>280.4</v>
+        <v>316.3</v>
       </c>
       <c r="D25" t="n">
-        <v>281.8</v>
+        <v>320.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>275.6</v>
       </c>
       <c r="C26" t="n">
-        <v>78.90000000000001</v>
+        <v>276.7</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>274.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>59.99999999999999</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>56</v>
+        <v>28.6</v>
       </c>
       <c r="C27" t="n">
-        <v>59.6</v>
+        <v>28.3</v>
       </c>
       <c r="D27" t="n">
-        <v>58.4</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>64.7</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>63.9</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B29" t="n">
-        <v>46.9</v>
+        <v>28.6</v>
       </c>
       <c r="C29" t="n">
-        <v>44.6</v>
+        <v>26.9</v>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>16.2</v>
+        <v>28.6</v>
       </c>
       <c r="C30" t="n">
-        <v>13.4</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>13.1</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>280</v>
+        <v>10</v>
       </c>
       <c r="B31" t="n">
-        <v>275</v>
+        <v>7.2</v>
       </c>
       <c r="C31" t="n">
-        <v>277.6</v>
+        <v>10</v>
       </c>
       <c r="D31" t="n">
-        <v>282.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>10.6</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -894,27 +894,27 @@
         <v>330</v>
       </c>
       <c r="B33" t="n">
-        <v>333.6</v>
+        <v>325.4</v>
       </c>
       <c r="C33" t="n">
-        <v>331.9</v>
+        <v>329.2</v>
       </c>
       <c r="D33" t="n">
-        <v>330</v>
+        <v>326.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B34" t="n">
-        <v>312.9</v>
+        <v>295.3</v>
       </c>
       <c r="C34" t="n">
-        <v>308.9</v>
+        <v>294.8</v>
       </c>
       <c r="D34" t="n">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35">
@@ -922,97 +922,97 @@
         <v>295</v>
       </c>
       <c r="B35" t="n">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="C35" t="n">
-        <v>296.9</v>
+        <v>284.4</v>
       </c>
       <c r="D35" t="n">
-        <v>289</v>
+        <v>283.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>25</v>
+        <v>300</v>
       </c>
       <c r="B36" t="n">
-        <v>23.1</v>
+        <v>281</v>
       </c>
       <c r="C36" t="n">
-        <v>25.5</v>
+        <v>284.9</v>
       </c>
       <c r="D36" t="n">
-        <v>26.4</v>
+        <v>289.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="B37" t="n">
-        <v>49.4</v>
+        <v>315.7</v>
       </c>
       <c r="C37" t="n">
-        <v>49</v>
+        <v>313.9</v>
       </c>
       <c r="D37" t="n">
-        <v>47.7</v>
+        <v>309.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="B38" t="n">
-        <v>29.4</v>
+        <v>352.7</v>
       </c>
       <c r="C38" t="n">
-        <v>28.3</v>
+        <v>350</v>
       </c>
       <c r="D38" t="n">
-        <v>28.2</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>290</v>
+        <v>355</v>
       </c>
       <c r="B39" t="n">
-        <v>297.8</v>
+        <v>352.7</v>
       </c>
       <c r="C39" t="n">
-        <v>294.5</v>
+        <v>355</v>
       </c>
       <c r="D39" t="n">
-        <v>290</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>310</v>
+        <v>50</v>
       </c>
       <c r="B40" t="n">
-        <v>297.8</v>
+        <v>50.1</v>
       </c>
       <c r="C40" t="n">
-        <v>303.2</v>
+        <v>55</v>
       </c>
       <c r="D40" t="n">
-        <v>304.9</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="B41" t="n">
-        <v>16.2</v>
+        <v>295.3</v>
       </c>
       <c r="C41" t="n">
-        <v>15.3</v>
+        <v>294.8</v>
       </c>
       <c r="D41" t="n">
-        <v>15.4</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
@@ -1020,69 +1020,69 @@
         <v>270</v>
       </c>
       <c r="B42" t="n">
-        <v>275</v>
+        <v>275.6</v>
       </c>
       <c r="C42" t="n">
-        <v>277.9</v>
+        <v>274.6</v>
       </c>
       <c r="D42" t="n">
-        <v>276</v>
+        <v>275.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="B43" t="n">
-        <v>345.6</v>
+        <v>283.6</v>
       </c>
       <c r="C43" t="n">
-        <v>345</v>
+        <v>282.6</v>
       </c>
       <c r="D43" t="n">
-        <v>345</v>
+        <v>288.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>70</v>
+        <v>330</v>
       </c>
       <c r="B44" t="n">
-        <v>83.59999999999999</v>
+        <v>325.4</v>
       </c>
       <c r="C44" t="n">
-        <v>78.3</v>
+        <v>322.5</v>
       </c>
       <c r="D44" t="n">
-        <v>71.5</v>
+        <v>320.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>355</v>
+        <v>35</v>
       </c>
       <c r="B45" t="n">
-        <v>353.1</v>
+        <v>50.1</v>
       </c>
       <c r="C45" t="n">
-        <v>355</v>
+        <v>47</v>
       </c>
       <c r="D45" t="n">
-        <v>355</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B46" t="n">
-        <v>83.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C46" t="n">
-        <v>84.2</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>84.2</v>
+        <v>73.7</v>
       </c>
     </row>
     <row r="47">
@@ -1090,293 +1090,293 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>83.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="C47" t="n">
-        <v>81.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>83.40000000000001</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="B48" t="n">
-        <v>83.59999999999999</v>
+        <v>325.4</v>
       </c>
       <c r="C48" t="n">
-        <v>85.90000000000001</v>
+        <v>321.3</v>
       </c>
       <c r="D48" t="n">
-        <v>85.90000000000001</v>
+        <v>320.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B49" t="n">
-        <v>64.7</v>
+        <v>39.8</v>
       </c>
       <c r="C49" t="n">
-        <v>65.3</v>
+        <v>35.6</v>
       </c>
       <c r="D49" t="n">
-        <v>59.9</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B50" t="n">
-        <v>23.1</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>25.1</v>
+        <v>74.8</v>
       </c>
       <c r="D50" t="n">
-        <v>25</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="B51" t="n">
-        <v>280.9</v>
+        <v>343.3</v>
       </c>
       <c r="C51" t="n">
-        <v>286.3</v>
+        <v>345</v>
       </c>
       <c r="D51" t="n">
-        <v>295</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="B52" t="n">
-        <v>333.6</v>
+        <v>83.5</v>
       </c>
       <c r="C52" t="n">
-        <v>330.4</v>
+        <v>85</v>
       </c>
       <c r="D52" t="n">
-        <v>326.7</v>
+        <v>85.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="B53" t="n">
-        <v>297.8</v>
+        <v>283.6</v>
       </c>
       <c r="C53" t="n">
-        <v>300.8</v>
+        <v>280.4</v>
       </c>
       <c r="D53" t="n">
-        <v>300</v>
+        <v>276.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>345</v>
+        <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>345.6</v>
+        <v>17.6</v>
       </c>
       <c r="C54" t="n">
-        <v>345</v>
+        <v>14.6</v>
       </c>
       <c r="D54" t="n">
-        <v>345</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>275</v>
+        <v>5</v>
       </c>
       <c r="B55" t="n">
-        <v>280.9</v>
+        <v>7.2</v>
       </c>
       <c r="C55" t="n">
-        <v>284</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>280</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B56" t="n">
-        <v>10</v>
+        <v>17.6</v>
       </c>
       <c r="C56" t="n">
-        <v>12.9</v>
+        <v>22.2</v>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n">
-        <v>43.9</v>
+        <v>28.6</v>
       </c>
       <c r="C57" t="n">
-        <v>44.6</v>
+        <v>26.9</v>
       </c>
       <c r="D57" t="n">
-        <v>43.6</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B58" t="n">
-        <v>64.7</v>
+        <v>39.8</v>
       </c>
       <c r="C58" t="n">
-        <v>63.9</v>
+        <v>33.9</v>
       </c>
       <c r="D58" t="n">
-        <v>65</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="B59" t="n">
-        <v>353.1</v>
+        <v>28.6</v>
       </c>
       <c r="C59" t="n">
-        <v>355</v>
+        <v>24.9</v>
       </c>
       <c r="D59" t="n">
-        <v>355</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="B60" t="n">
-        <v>290</v>
+        <v>17.6</v>
       </c>
       <c r="C60" t="n">
-        <v>288</v>
+        <v>14.6</v>
       </c>
       <c r="D60" t="n">
-        <v>287.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="B61" t="n">
-        <v>320</v>
+        <v>343.3</v>
       </c>
       <c r="C61" t="n">
-        <v>317.5</v>
+        <v>340.2</v>
       </c>
       <c r="D61" t="n">
-        <v>310</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B63" t="n">
-        <v>43.9</v>
+        <v>50.1</v>
       </c>
       <c r="C63" t="n">
-        <v>44.6</v>
+        <v>48.1</v>
       </c>
       <c r="D63" t="n">
-        <v>43.6</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B64" t="n">
-        <v>71.7</v>
+        <v>7.2</v>
       </c>
       <c r="C64" t="n">
-        <v>70.40000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="D64" t="n">
-        <v>68.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="B65" t="n">
-        <v>320</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>317.8</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>320</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
+        <v>320</v>
+      </c>
+      <c r="B66" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="C66" t="n">
         <v>325</v>
       </c>
-      <c r="B66" t="n">
-        <v>322.8</v>
-      </c>
-      <c r="C66" t="n">
-        <v>323.4</v>
-      </c>
       <c r="D66" t="n">
-        <v>325</v>
+        <v>324.8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>59.99999999999999</v>
+        <v>335</v>
       </c>
       <c r="B67" t="n">
-        <v>83.59999999999999</v>
+        <v>336.1</v>
       </c>
       <c r="C67" t="n">
-        <v>80.40000000000001</v>
+        <v>334.6</v>
       </c>
       <c r="D67" t="n">
-        <v>75.5</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68">
@@ -1384,335 +1384,951 @@
         <v>5</v>
       </c>
       <c r="B68" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5</v>
+        <v>310</v>
       </c>
       <c r="B69" t="n">
-        <v>6.7</v>
+        <v>315.7</v>
       </c>
       <c r="C69" t="n">
-        <v>6.4</v>
+        <v>312.2</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>315.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B70" t="n">
-        <v>275</v>
+        <v>295.3</v>
       </c>
       <c r="C70" t="n">
-        <v>274.6</v>
+        <v>286</v>
       </c>
       <c r="D70" t="n">
-        <v>271.9</v>
+        <v>284.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="B71" t="n">
-        <v>312.9</v>
+        <v>298.3</v>
       </c>
       <c r="C71" t="n">
-        <v>316.6</v>
+        <v>279.2</v>
       </c>
       <c r="D71" t="n">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>65</v>
+        <v>325</v>
       </c>
       <c r="B72" t="n">
-        <v>64.7</v>
+        <v>315.7</v>
       </c>
       <c r="C72" t="n">
-        <v>63.9</v>
+        <v>318.5</v>
       </c>
       <c r="D72" t="n">
-        <v>65</v>
+        <v>322.6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="B73" t="n">
-        <v>75.40000000000001</v>
+        <v>336.1</v>
       </c>
       <c r="C73" t="n">
-        <v>76.09999999999999</v>
+        <v>333.3</v>
       </c>
       <c r="D73" t="n">
-        <v>75.3</v>
+        <v>331.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>35</v>
+        <v>335</v>
       </c>
       <c r="B74" t="n">
-        <v>37.8</v>
+        <v>343.3</v>
       </c>
       <c r="C74" t="n">
-        <v>35.6</v>
+        <v>342</v>
       </c>
       <c r="D74" t="n">
-        <v>29.9</v>
+        <v>341.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="B75" t="n">
-        <v>297.8</v>
+        <v>343.3</v>
       </c>
       <c r="C75" t="n">
-        <v>297.3</v>
+        <v>340.8</v>
       </c>
       <c r="D75" t="n">
-        <v>297.1</v>
+        <v>340.7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B76" t="n">
-        <v>71.7</v>
+        <v>28.6</v>
       </c>
       <c r="C76" t="n">
-        <v>71.09999999999999</v>
+        <v>34.2</v>
       </c>
       <c r="D76" t="n">
-        <v>75.40000000000001</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="B77" t="n">
-        <v>312.9</v>
+        <v>343.3</v>
       </c>
       <c r="C77" t="n">
-        <v>315.1</v>
+        <v>339.6</v>
       </c>
       <c r="D77" t="n">
-        <v>315</v>
+        <v>337.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B78" t="n">
-        <v>333.6</v>
+        <v>336.1</v>
       </c>
       <c r="C78" t="n">
-        <v>334.9</v>
+        <v>338.6</v>
       </c>
       <c r="D78" t="n">
-        <v>332</v>
+        <v>340.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>90</v>
+        <v>345</v>
       </c>
       <c r="B79" t="n">
-        <v>83.59999999999999</v>
+        <v>343.3</v>
       </c>
       <c r="C79" t="n">
-        <v>85.40000000000001</v>
+        <v>345</v>
       </c>
       <c r="D79" t="n">
-        <v>90</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B80" t="n">
-        <v>29.4</v>
+        <v>39.8</v>
       </c>
       <c r="C80" t="n">
-        <v>32.3</v>
+        <v>40.7</v>
       </c>
       <c r="D80" t="n">
-        <v>33.2</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>35</v>
+        <v>300</v>
       </c>
       <c r="B81" t="n">
-        <v>29.4</v>
+        <v>295.3</v>
       </c>
       <c r="C81" t="n">
-        <v>25.8</v>
+        <v>300.1</v>
       </c>
       <c r="D81" t="n">
-        <v>26.7</v>
+        <v>298.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="B82" t="n">
-        <v>322.8</v>
+        <v>17.6</v>
       </c>
       <c r="C82" t="n">
-        <v>321.8</v>
+        <v>22.9</v>
       </c>
       <c r="D82" t="n">
-        <v>322.2</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="B83" t="n">
-        <v>83.59999999999999</v>
+        <v>315.7</v>
       </c>
       <c r="C83" t="n">
-        <v>81.59999999999999</v>
+        <v>317.6</v>
       </c>
       <c r="D83" t="n">
-        <v>75</v>
+        <v>318.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B84" t="n">
-        <v>339.6</v>
+        <v>352.7</v>
       </c>
       <c r="C84" t="n">
-        <v>339.7</v>
+        <v>350</v>
       </c>
       <c r="D84" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="B85" t="n">
-        <v>23.1</v>
+        <v>307.5</v>
       </c>
       <c r="C85" t="n">
-        <v>19</v>
+        <v>313.9</v>
       </c>
       <c r="D85" t="n">
-        <v>24.5</v>
+        <v>313.4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>25</v>
+        <v>290</v>
       </c>
       <c r="B86" t="n">
-        <v>23.1</v>
+        <v>295.3</v>
       </c>
       <c r="C86" t="n">
-        <v>24.6</v>
+        <v>292.3</v>
       </c>
       <c r="D86" t="n">
-        <v>25</v>
+        <v>290.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>80</v>
+        <v>59.99999999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>83.59999999999999</v>
+        <v>50.1</v>
       </c>
       <c r="C87" t="n">
-        <v>80.09999999999999</v>
+        <v>58.9</v>
       </c>
       <c r="D87" t="n">
-        <v>80</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>46.9</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>44.7</v>
+        <v>118.3</v>
       </c>
       <c r="D88" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="B89" t="n">
-        <v>320</v>
+        <v>295.3</v>
       </c>
       <c r="C89" t="n">
-        <v>318.4</v>
+        <v>284.5</v>
       </c>
       <c r="D89" t="n">
-        <v>317.1</v>
+        <v>281.4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B90" t="n">
-        <v>46.9</v>
+        <v>7.2</v>
       </c>
       <c r="C90" t="n">
-        <v>45.6</v>
+        <v>11.7</v>
       </c>
       <c r="D90" t="n">
-        <v>45.6</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
+        <v>15</v>
+      </c>
+      <c r="B91" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>275</v>
+      </c>
+      <c r="B92" t="n">
+        <v>275.6</v>
+      </c>
+      <c r="C92" t="n">
+        <v>271.1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>270.9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>30</v>
+      </c>
+      <c r="B93" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C93" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>85</v>
+      </c>
+      <c r="B94" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D94" t="n">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>340</v>
+      </c>
+      <c r="B95" t="n">
+        <v>343.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>341.7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>344.1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>295</v>
+      </c>
+      <c r="B96" t="n">
+        <v>281</v>
+      </c>
+      <c r="C96" t="n">
+        <v>283.8</v>
+      </c>
+      <c r="D96" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>20</v>
+      </c>
+      <c r="B97" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C97" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="D97" t="n">
+        <v>19.4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>275</v>
+      </c>
+      <c r="B98" t="n">
+        <v>283.6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>280.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>276.5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>75</v>
+      </c>
+      <c r="B99" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C99" t="n">
+        <v>84.3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>82.09999999999999</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59.99999999999999</v>
+      </c>
+      <c r="B100" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>335</v>
+      </c>
+      <c r="B101" t="n">
+        <v>336.1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>339.2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>339.4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>59.99999999999999</v>
+      </c>
+      <c r="B102" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>66.09999999999999</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>325</v>
+      </c>
+      <c r="B103" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>327.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>323.8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>340</v>
+      </c>
+      <c r="B104" t="n">
+        <v>343.3</v>
+      </c>
+      <c r="C104" t="n">
+        <v>340.8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>341.4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>305</v>
+      </c>
+      <c r="B105" t="n">
+        <v>304.7</v>
+      </c>
+      <c r="C105" t="n">
+        <v>308.6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>306.8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>310</v>
+      </c>
+      <c r="B106" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="C106" t="n">
+        <v>312.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>314.2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>340</v>
+      </c>
+      <c r="B107" t="n">
+        <v>343.3</v>
+      </c>
+      <c r="C107" t="n">
+        <v>341.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>342.7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>355</v>
+      </c>
+      <c r="B108" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>355</v>
+      </c>
+      <c r="D108" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>20</v>
+      </c>
+      <c r="B109" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>90</v>
+      </c>
+      <c r="B110" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>345</v>
+      </c>
+      <c r="B111" t="n">
+        <v>343.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>344.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>343.8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>340</v>
+      </c>
+      <c r="B112" t="n">
+        <v>332</v>
+      </c>
+      <c r="C112" t="n">
+        <v>332.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>330.1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>270</v>
+      </c>
+      <c r="B113" t="n">
+        <v>281</v>
+      </c>
+      <c r="C113" t="n">
+        <v>279.2</v>
+      </c>
+      <c r="D113" t="n">
+        <v>281.7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>285</v>
+      </c>
+      <c r="B114" t="n">
+        <v>298.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>284.6</v>
+      </c>
+      <c r="D114" t="n">
+        <v>305.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>320</v>
+      </c>
+      <c r="B115" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="C115" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>320.8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>310</v>
+      </c>
+      <c r="B116" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>307.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>306.6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
         <v>280</v>
       </c>
-      <c r="B91" t="n">
-        <v>280.9</v>
-      </c>
-      <c r="C91" t="n">
-        <v>279</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="B117" t="n">
+        <v>283.6</v>
+      </c>
+      <c r="C117" t="n">
+        <v>280.8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>70</v>
+      </c>
+      <c r="B118" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="C118" t="n">
+        <v>63.4</v>
+      </c>
+      <c r="D118" t="n">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>310</v>
+      </c>
+      <c r="B119" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="C119" t="n">
+        <v>313.9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>309.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>295</v>
+      </c>
+      <c r="B120" t="n">
+        <v>281</v>
+      </c>
+      <c r="C120" t="n">
+        <v>277.6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>276.6</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>90</v>
+      </c>
+      <c r="B121" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>80.59999999999999</v>
+      </c>
+      <c r="D121" t="n">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>65</v>
+      </c>
+      <c r="B122" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="C122" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>90</v>
+      </c>
+      <c r="B123" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>85</v>
+      </c>
+      <c r="D123" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>315</v>
+      </c>
+      <c r="B124" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>318.2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>20</v>
+      </c>
+      <c r="B125" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>355</v>
+      </c>
+      <c r="B126" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>355</v>
+      </c>
+      <c r="D126" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>5</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>40</v>
+      </c>
+      <c r="B128" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>25</v>
+      </c>
+      <c r="B129" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>290</v>
+      </c>
+      <c r="B130" t="n">
+        <v>281</v>
+      </c>
+      <c r="C130" t="n">
+        <v>292.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>294.7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>85</v>
+      </c>
+      <c r="B131" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="D131" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>50</v>
+      </c>
+      <c r="B132" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
         <v>280</v>
+      </c>
+      <c r="B133" t="n">
+        <v>283.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>276</v>
+      </c>
+      <c r="D133" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>305</v>
+      </c>
+      <c r="B134" t="n">
+        <v>298.3</v>
+      </c>
+      <c r="C134" t="n">
+        <v>277.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>284.7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>90</v>
+      </c>
+      <c r="B135" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>78.40000000000001</v>
       </c>
     </row>
   </sheetData>
